--- a/03_ips_clean/09_data_web/03_op.xlsx
+++ b/03_ips_clean/09_data_web/03_op.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr date1904="false"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
@@ -119,7 +119,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
   <fonts count="1">
     <font>
@@ -438,10 +438,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
@@ -554,103 +554,103 @@
         <v>2015</v>
       </c>
       <c r="B2" t="n">
-        <v>50.0441756469752</v>
+        <v>48.0983276566098</v>
       </c>
       <c r="C2" t="n">
-        <v>53.9491349666641</v>
+        <v>50.9192644091331</v>
       </c>
       <c r="D2" t="n">
-        <v>53.6704168584081</v>
+        <v>51.0444328705443</v>
       </c>
       <c r="E2" t="n">
-        <v>53.7273437799002</v>
+        <v>51.5427744763604</v>
       </c>
       <c r="F2" t="n">
-        <v>51.3355543371654</v>
+        <v>48.9574804837526</v>
       </c>
       <c r="G2" t="n">
-        <v>52.450029759005</v>
+        <v>49.3661101469688</v>
       </c>
       <c r="H2" t="n">
-        <v>56.2008016021434</v>
+        <v>53.0757765330838</v>
       </c>
       <c r="I2" t="n">
-        <v>37.6881757465306</v>
+        <v>35.4397717126918</v>
       </c>
       <c r="J2" t="n">
-        <v>52.1113972052366</v>
+        <v>52.0205034425685</v>
       </c>
       <c r="K2" t="n">
-        <v>62.5488574692753</v>
+        <v>63.2529004907958</v>
       </c>
       <c r="L2" t="n">
-        <v>48.2204217451654</v>
+        <v>46.9858279274083</v>
       </c>
       <c r="M2" t="n">
-        <v>43.5413077401523</v>
+        <v>39.7960538450611</v>
       </c>
       <c r="N2" t="n">
-        <v>37.551078032415</v>
+        <v>36.3618070958855</v>
       </c>
       <c r="O2" t="n">
-        <v>46.2758436367377</v>
+        <v>44.7728958632682</v>
       </c>
       <c r="P2" t="n">
-        <v>53.2276954016785</v>
+        <v>50.9291188242156</v>
       </c>
       <c r="Q2" t="n">
-        <v>47.3469241883203</v>
+        <v>46.7392077692247</v>
       </c>
       <c r="R2" t="n">
-        <v>46.0565830680255</v>
+        <v>42.6964868527132</v>
       </c>
       <c r="S2" t="n">
-        <v>50.7955868079689</v>
+        <v>48.1635119129752</v>
       </c>
       <c r="T2" t="n">
-        <v>52.3936372544385</v>
+        <v>50.4990074264789</v>
       </c>
       <c r="U2" t="n">
-        <v>62.0778194601713</v>
+        <v>59.1326756534721</v>
       </c>
       <c r="V2" t="n">
-        <v>38.4389460873122</v>
+        <v>35.9885065618088</v>
       </c>
       <c r="W2" t="n">
-        <v>46.4961213136144</v>
+        <v>45.3728239044752</v>
       </c>
       <c r="X2" t="n">
-        <v>54.3974281144902</v>
+        <v>49.9925759327298</v>
       </c>
       <c r="Y2" t="n">
-        <v>50.4375960327741</v>
+        <v>46.6263864803952</v>
       </c>
       <c r="Z2" t="n">
-        <v>52.1109799765219</v>
+        <v>48.4901153874882</v>
       </c>
       <c r="AA2" t="n">
-        <v>53.4522959089775</v>
+        <v>51.2134352540781</v>
       </c>
       <c r="AB2" t="n">
-        <v>57.275121526577</v>
+        <v>55.0514671205328</v>
       </c>
       <c r="AC2" t="n">
-        <v>48.6411255214033</v>
+        <v>45.2384084768014</v>
       </c>
       <c r="AD2" t="n">
-        <v>53.188851345824</v>
+        <v>52.0732124246719</v>
       </c>
       <c r="AE2" t="n">
-        <v>49.6731231134019</v>
+        <v>47.8973427351085</v>
       </c>
       <c r="AF2" t="n">
-        <v>44.8618436481328</v>
+        <v>41.847417848496</v>
       </c>
       <c r="AG2" t="n">
-        <v>54.0606092302085</v>
+        <v>50.2999327812831</v>
       </c>
       <c r="AH2" t="n">
-        <v>48.0963237869192</v>
+        <v>45.0300391532212</v>
       </c>
     </row>
     <row r="3">
@@ -658,103 +658,103 @@
         <v>2016</v>
       </c>
       <c r="B3" t="n">
-        <v>51.0809686090482</v>
+        <v>49.1697574402039</v>
       </c>
       <c r="C3" t="n">
-        <v>53.9211351620087</v>
+        <v>51.5000064455427</v>
       </c>
       <c r="D3" t="n">
-        <v>55.6603040799102</v>
+        <v>53.8760899567006</v>
       </c>
       <c r="E3" t="n">
-        <v>55.3880767508749</v>
+        <v>52.3905938848554</v>
       </c>
       <c r="F3" t="n">
-        <v>52.3595730679138</v>
+        <v>50.0327612093983</v>
       </c>
       <c r="G3" t="n">
-        <v>55.4663976161866</v>
+        <v>52.3909644739212</v>
       </c>
       <c r="H3" t="n">
-        <v>55.5489418375139</v>
+        <v>52.0322241076073</v>
       </c>
       <c r="I3" t="n">
-        <v>38.047629130345</v>
+        <v>35.6164492756392</v>
       </c>
       <c r="J3" t="n">
-        <v>53.6998535267891</v>
+        <v>52.9078310613599</v>
       </c>
       <c r="K3" t="n">
-        <v>65.7398221146675</v>
+        <v>66.6246302026389</v>
       </c>
       <c r="L3" t="n">
-        <v>51.5845443384731</v>
+        <v>51.1193326062267</v>
       </c>
       <c r="M3" t="n">
-        <v>46.5106316345703</v>
+        <v>44.5599604372882</v>
       </c>
       <c r="N3" t="n">
-        <v>38.7423288045026</v>
+        <v>37.2864432291258</v>
       </c>
       <c r="O3" t="n">
-        <v>47.5736722489503</v>
+        <v>46.2789353367231</v>
       </c>
       <c r="P3" t="n">
-        <v>53.1831547219747</v>
+        <v>50.9410169757044</v>
       </c>
       <c r="Q3" t="n">
-        <v>49.0613685634187</v>
+        <v>48.2704352435707</v>
       </c>
       <c r="R3" t="n">
-        <v>47.1087049542417</v>
+        <v>43.4219505096898</v>
       </c>
       <c r="S3" t="n">
-        <v>50.6753084109551</v>
+        <v>48.1496144892098</v>
       </c>
       <c r="T3" t="n">
-        <v>51.4861369232858</v>
+        <v>50.1684242791853</v>
       </c>
       <c r="U3" t="n">
-        <v>59.8432526793327</v>
+        <v>56.8254508888399</v>
       </c>
       <c r="V3" t="n">
-        <v>39.7451584230042</v>
+        <v>37.2028769676253</v>
       </c>
       <c r="W3" t="n">
-        <v>47.2723900620414</v>
+        <v>46.6864174798746</v>
       </c>
       <c r="X3" t="n">
-        <v>55.2026555450027</v>
+        <v>51.0162328804699</v>
       </c>
       <c r="Y3" t="n">
-        <v>51.8756028119764</v>
+        <v>48.1758794880188</v>
       </c>
       <c r="Z3" t="n">
-        <v>51.4706334546416</v>
+        <v>46.8836813607636</v>
       </c>
       <c r="AA3" t="n">
-        <v>54.5367743978637</v>
+        <v>52.6757405167696</v>
       </c>
       <c r="AB3" t="n">
-        <v>57.2289978950999</v>
+        <v>54.7666409573149</v>
       </c>
       <c r="AC3" t="n">
-        <v>49.3332552487962</v>
+        <v>45.3887221259393</v>
       </c>
       <c r="AD3" t="n">
-        <v>52.6775538817719</v>
+        <v>51.8282281013799</v>
       </c>
       <c r="AE3" t="n">
-        <v>48.8459330536076</v>
+        <v>46.5329740692032</v>
       </c>
       <c r="AF3" t="n">
-        <v>44.8914790733771</v>
+        <v>42.291322894072</v>
       </c>
       <c r="AG3" t="n">
-        <v>55.1011587163055</v>
+        <v>51.267008785818</v>
       </c>
       <c r="AH3" t="n">
-        <v>50.8745864513796</v>
+        <v>48.564321607107</v>
       </c>
     </row>
     <row r="4">
@@ -762,103 +762,103 @@
         <v>2017</v>
       </c>
       <c r="B4" t="n">
-        <v>52.40313879967</v>
+        <v>50.747498930488</v>
       </c>
       <c r="C4" t="n">
-        <v>54.7307220087041</v>
+        <v>53.1169599067324</v>
       </c>
       <c r="D4" t="n">
-        <v>56.4728053008778</v>
+        <v>55.2453328973312</v>
       </c>
       <c r="E4" t="n">
-        <v>57.6869690099258</v>
+        <v>55.0474924649228</v>
       </c>
       <c r="F4" t="n">
-        <v>52.5094953277855</v>
+        <v>49.8866006893327</v>
       </c>
       <c r="G4" t="n">
-        <v>56.3668978019837</v>
+        <v>54.0377589676882</v>
       </c>
       <c r="H4" t="n">
-        <v>55.0350636713494</v>
+        <v>51.9572315621422</v>
       </c>
       <c r="I4" t="n">
-        <v>42.5943970814237</v>
+        <v>39.4872978478466</v>
       </c>
       <c r="J4" t="n">
-        <v>55.1404741848095</v>
+        <v>54.2329939544354</v>
       </c>
       <c r="K4" t="n">
-        <v>65.5309702084081</v>
+        <v>66.6781383706917</v>
       </c>
       <c r="L4" t="n">
-        <v>50.964816357035</v>
+        <v>50.3909351562906</v>
       </c>
       <c r="M4" t="n">
-        <v>49.3834538844069</v>
+        <v>47.4048175477351</v>
       </c>
       <c r="N4" t="n">
-        <v>39.825711796814</v>
+        <v>38.3055288998705</v>
       </c>
       <c r="O4" t="n">
-        <v>47.9893141462565</v>
+        <v>47.3757404089268</v>
       </c>
       <c r="P4" t="n">
-        <v>54.1916785692099</v>
+        <v>52.1338006407215</v>
       </c>
       <c r="Q4" t="n">
-        <v>52.5020598731197</v>
+        <v>51.8652216252</v>
       </c>
       <c r="R4" t="n">
-        <v>48.9929495493656</v>
+        <v>45.6463785961163</v>
       </c>
       <c r="S4" t="n">
-        <v>50.5023187177315</v>
+        <v>48.3591002191284</v>
       </c>
       <c r="T4" t="n">
-        <v>51.990325021955</v>
+        <v>51.7722218700314</v>
       </c>
       <c r="U4" t="n">
-        <v>60.514056499566</v>
+        <v>57.0166612143692</v>
       </c>
       <c r="V4" t="n">
-        <v>40.1161966449914</v>
+        <v>37.7595737227137</v>
       </c>
       <c r="W4" t="n">
-        <v>48.3519813006196</v>
+        <v>49.1953931708315</v>
       </c>
       <c r="X4" t="n">
-        <v>55.8099631573973</v>
+        <v>52.4186896602427</v>
       </c>
       <c r="Y4" t="n">
-        <v>51.7069264740146</v>
+        <v>49.0295226036078</v>
       </c>
       <c r="Z4" t="n">
-        <v>50.979960352474</v>
+        <v>47.0745089308721</v>
       </c>
       <c r="AA4" t="n">
-        <v>59.3321198981689</v>
+        <v>57.533664042441</v>
       </c>
       <c r="AB4" t="n">
-        <v>58.3215377625812</v>
+        <v>56.287259188803</v>
       </c>
       <c r="AC4" t="n">
-        <v>50.8204819320991</v>
+        <v>46.9165225930702</v>
       </c>
       <c r="AD4" t="n">
-        <v>53.7176313929055</v>
+        <v>53.1897675678802</v>
       </c>
       <c r="AE4" t="n">
-        <v>51.2837686527792</v>
+        <v>48.8324335538097</v>
       </c>
       <c r="AF4" t="n">
-        <v>45.9258290758803</v>
+        <v>44.4083289787167</v>
       </c>
       <c r="AG4" t="n">
-        <v>57.1315269221075</v>
+        <v>53.7353295086557</v>
       </c>
       <c r="AH4" t="n">
-        <v>50.5324505258094</v>
+        <v>49.089782267573</v>
       </c>
     </row>
     <row r="5">
@@ -866,103 +866,103 @@
         <v>2018</v>
       </c>
       <c r="B5" t="n">
-        <v>56.559510365981</v>
+        <v>53.7578545200421</v>
       </c>
       <c r="C5" t="n">
-        <v>61.547990344526</v>
+        <v>58.9449487643915</v>
       </c>
       <c r="D5" t="n">
-        <v>60.7468396602096</v>
+        <v>57.3934140683498</v>
       </c>
       <c r="E5" t="n">
-        <v>62.3468640518918</v>
+        <v>59.3227536167945</v>
       </c>
       <c r="F5" t="n">
-        <v>55.4184852777537</v>
+        <v>51.6966631907102</v>
       </c>
       <c r="G5" t="n">
-        <v>59.9630585604682</v>
+        <v>57.1726601068038</v>
       </c>
       <c r="H5" t="n">
-        <v>61.4540998276335</v>
+        <v>57.2313428041872</v>
       </c>
       <c r="I5" t="n">
-        <v>42.3709342311617</v>
+        <v>38.9316444678123</v>
       </c>
       <c r="J5" t="n">
-        <v>59.8286787896068</v>
+        <v>58.5637584796898</v>
       </c>
       <c r="K5" t="n">
-        <v>75.3761887725113</v>
+        <v>74.9954758496989</v>
       </c>
       <c r="L5" t="n">
-        <v>55.2508231400797</v>
+        <v>52.1010689865781</v>
       </c>
       <c r="M5" t="n">
-        <v>52.9972106288375</v>
+        <v>49.182922939684</v>
       </c>
       <c r="N5" t="n">
-        <v>41.6025910505257</v>
+        <v>38.8968827516935</v>
       </c>
       <c r="O5" t="n">
-        <v>52.017891659411</v>
+        <v>50.6894214089267</v>
       </c>
       <c r="P5" t="n">
-        <v>60.9608356509583</v>
+        <v>56.5046579097435</v>
       </c>
       <c r="Q5" t="n">
-        <v>55.888008479608</v>
+        <v>53.8269944719003</v>
       </c>
       <c r="R5" t="n">
-        <v>52.3805467377736</v>
+        <v>48.8962440669591</v>
       </c>
       <c r="S5" t="n">
-        <v>54.7831369884671</v>
+        <v>52.0406701049237</v>
       </c>
       <c r="T5" t="n">
-        <v>56.1631112537621</v>
+        <v>54.1476344820218</v>
       </c>
       <c r="U5" t="n">
-        <v>65.6256117372952</v>
+        <v>62.3018891408676</v>
       </c>
       <c r="V5" t="n">
-        <v>44.9256792436222</v>
+        <v>42.3961136997162</v>
       </c>
       <c r="W5" t="n">
-        <v>54.6370171317372</v>
+        <v>54.4669277288213</v>
       </c>
       <c r="X5" t="n">
-        <v>59.9336284669193</v>
+        <v>56.3047545409296</v>
       </c>
       <c r="Y5" t="n">
-        <v>56.1608598585368</v>
+        <v>52.0970944323739</v>
       </c>
       <c r="Z5" t="n">
-        <v>55.8281229403418</v>
+        <v>50.9545795807581</v>
       </c>
       <c r="AA5" t="n">
-        <v>61.0189708791549</v>
+        <v>59.062296581735</v>
       </c>
       <c r="AB5" t="n">
-        <v>61.6740645036403</v>
+        <v>59.3871832196631</v>
       </c>
       <c r="AC5" t="n">
-        <v>51.6664640450921</v>
+        <v>47.1898465130774</v>
       </c>
       <c r="AD5" t="n">
-        <v>60.0097166914558</v>
+        <v>58.244905477828</v>
       </c>
       <c r="AE5" t="n">
-        <v>54.4402019381287</v>
+        <v>52.1298382749669</v>
       </c>
       <c r="AF5" t="n">
-        <v>49.9549921022817</v>
+        <v>46.9752990127213</v>
       </c>
       <c r="AG5" t="n">
-        <v>59.5028359628154</v>
+        <v>56.1438622880876</v>
       </c>
       <c r="AH5" t="n">
-        <v>56.6556787257257</v>
+        <v>53.8919299986706</v>
       </c>
     </row>
     <row r="6">
@@ -970,103 +970,103 @@
         <v>2019</v>
       </c>
       <c r="B6" t="n">
-        <v>57.0515370987439</v>
+        <v>54.4491439638919</v>
       </c>
       <c r="C6" t="n">
-        <v>62.0901893072084</v>
+        <v>59.3129227445191</v>
       </c>
       <c r="D6" t="n">
-        <v>61.4267930085901</v>
+        <v>59.4471921172481</v>
       </c>
       <c r="E6" t="n">
-        <v>62.4674790055044</v>
+        <v>59.9471018981831</v>
       </c>
       <c r="F6" t="n">
-        <v>55.3979228219458</v>
+        <v>51.2323449021757</v>
       </c>
       <c r="G6" t="n">
-        <v>61.8749755330967</v>
+        <v>59.4892316139428</v>
       </c>
       <c r="H6" t="n">
-        <v>60.5481711994261</v>
+        <v>57.0759444438721</v>
       </c>
       <c r="I6" t="n">
-        <v>41.6491301772432</v>
+        <v>38.9152816210701</v>
       </c>
       <c r="J6" t="n">
-        <v>60.2067683882875</v>
+        <v>59.1048535292097</v>
       </c>
       <c r="K6" t="n">
-        <v>74.367293927085</v>
+        <v>73.9655612664973</v>
       </c>
       <c r="L6" t="n">
-        <v>57.5084436463788</v>
+        <v>54.9991779748542</v>
       </c>
       <c r="M6" t="n">
-        <v>52.7610813586313</v>
+        <v>48.7253125954687</v>
       </c>
       <c r="N6" t="n">
-        <v>41.5133096359074</v>
+        <v>38.7728508110091</v>
       </c>
       <c r="O6" t="n">
-        <v>54.2987943289733</v>
+        <v>53.6823990449345</v>
       </c>
       <c r="P6" t="n">
-        <v>61.1678483955205</v>
+        <v>57.5904535668546</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.2251532172408</v>
+        <v>54.6158253348721</v>
       </c>
       <c r="R6" t="n">
-        <v>52.9986392393328</v>
+        <v>50.123026796364</v>
       </c>
       <c r="S6" t="n">
-        <v>56.6681080416649</v>
+        <v>54.5997803610745</v>
       </c>
       <c r="T6" t="n">
-        <v>56.959590853008</v>
+        <v>55.172086883532</v>
       </c>
       <c r="U6" t="n">
-        <v>66.1763602668087</v>
+        <v>63.2994533808124</v>
       </c>
       <c r="V6" t="n">
-        <v>46.0565079197527</v>
+        <v>43.067816908763</v>
       </c>
       <c r="W6" t="n">
-        <v>55.1933800390024</v>
+        <v>54.692919239475</v>
       </c>
       <c r="X6" t="n">
-        <v>60.4736937663234</v>
+        <v>56.9088448338476</v>
       </c>
       <c r="Y6" t="n">
-        <v>57.7924170603238</v>
+        <v>53.4152971804453</v>
       </c>
       <c r="Z6" t="n">
-        <v>57.2463832621243</v>
+        <v>52.9924643993978</v>
       </c>
       <c r="AA6" t="n">
-        <v>60.7273885529006</v>
+        <v>57.9431524871131</v>
       </c>
       <c r="AB6" t="n">
-        <v>62.0145303790728</v>
+        <v>58.9347551716098</v>
       </c>
       <c r="AC6" t="n">
-        <v>53.5147928079788</v>
+        <v>49.5991562511301</v>
       </c>
       <c r="AD6" t="n">
-        <v>61.3135193158587</v>
+        <v>60.0069502725142</v>
       </c>
       <c r="AE6" t="n">
-        <v>54.90921501864</v>
+        <v>52.4009223314062</v>
       </c>
       <c r="AF6" t="n">
-        <v>49.6005684641071</v>
+        <v>47.2344952156516</v>
       </c>
       <c r="AG6" t="n">
-        <v>60.8801278080854</v>
+        <v>57.3922226085584</v>
       </c>
       <c r="AH6" t="n">
-        <v>56.9333854284096</v>
+        <v>55.0606218398577</v>
       </c>
     </row>
     <row r="7">
@@ -1074,103 +1074,207 @@
         <v>2020</v>
       </c>
       <c r="B7" t="n">
-        <v>59.2795555936221</v>
+        <v>56.3398824132849</v>
       </c>
       <c r="C7" t="n">
-        <v>65.1333931545453</v>
+        <v>61.9701276509363</v>
       </c>
       <c r="D7" t="n">
-        <v>65.8962171056965</v>
+        <v>63.2237632139971</v>
       </c>
       <c r="E7" t="n">
-        <v>63.2163669583438</v>
+        <v>59.7977240744068</v>
       </c>
       <c r="F7" t="n">
-        <v>60.6298585223136</v>
+        <v>56.2842872370323</v>
       </c>
       <c r="G7" t="n">
-        <v>64.0798143727148</v>
+        <v>61.5228126596211</v>
       </c>
       <c r="H7" t="n">
-        <v>64.0202793045933</v>
+        <v>60.5946749115779</v>
       </c>
       <c r="I7" t="n">
-        <v>44.3627396324976</v>
+        <v>40.9389646039793</v>
       </c>
       <c r="J7" t="n">
-        <v>61.4797102399257</v>
+        <v>60.1006397599254</v>
       </c>
       <c r="K7" t="n">
-        <v>75.6468009029232</v>
+        <v>74.7020414759257</v>
       </c>
       <c r="L7" t="n">
-        <v>59.7386944725519</v>
+        <v>56.9870829397028</v>
       </c>
       <c r="M7" t="n">
-        <v>53.9640358408047</v>
+        <v>49.6524455048786</v>
       </c>
       <c r="N7" t="n">
-        <v>46.2745774621282</v>
+        <v>43.1042879867335</v>
       </c>
       <c r="O7" t="n">
-        <v>56.0997218261342</v>
+        <v>54.9440669660332</v>
       </c>
       <c r="P7" t="n">
-        <v>63.995961040153</v>
+        <v>59.8142472385347</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.4061357884397</v>
+        <v>55.4971707686316</v>
       </c>
       <c r="R7" t="n">
-        <v>53.1934901999894</v>
+        <v>50.3430475146134</v>
       </c>
       <c r="S7" t="n">
-        <v>57.880283246934</v>
+        <v>55.2158153752613</v>
       </c>
       <c r="T7" t="n">
-        <v>59.1185055401048</v>
+        <v>57.0097720940257</v>
       </c>
       <c r="U7" t="n">
-        <v>68.3711554379307</v>
+        <v>65.2126157776324</v>
       </c>
       <c r="V7" t="n">
-        <v>49.3140972557311</v>
+        <v>45.9011363697355</v>
       </c>
       <c r="W7" t="n">
-        <v>55.993599598644</v>
+        <v>54.913563694289</v>
       </c>
       <c r="X7" t="n">
-        <v>64.0104190587606</v>
+        <v>60.0375839934544</v>
       </c>
       <c r="Y7" t="n">
-        <v>57.9893730841704</v>
+        <v>53.1263408101335</v>
       </c>
       <c r="Z7" t="n">
-        <v>59.0680851553425</v>
+        <v>54.5034609949132</v>
       </c>
       <c r="AA7" t="n">
-        <v>64.2124997649759</v>
+        <v>61.3064877944661</v>
       </c>
       <c r="AB7" t="n">
-        <v>65.2396040370389</v>
+        <v>61.9766109541792</v>
       </c>
       <c r="AC7" t="n">
-        <v>58.0634748027799</v>
+        <v>53.6975707193465</v>
       </c>
       <c r="AD7" t="n">
-        <v>65.0564850997187</v>
+        <v>63.9483251593713</v>
       </c>
       <c r="AE7" t="n">
-        <v>57.3810565380156</v>
+        <v>54.4344607178519</v>
       </c>
       <c r="AF7" t="n">
-        <v>53.2087181075523</v>
+        <v>50.4454529929393</v>
       </c>
       <c r="AG7" t="n">
-        <v>63.5844518895882</v>
+        <v>59.9692369811118</v>
       </c>
       <c r="AH7" t="n">
-        <v>58.2838692903473</v>
+        <v>56.1056150080873</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B8" t="n">
+        <v>55.6188749101629</v>
+      </c>
+      <c r="C8" t="n">
+        <v>60.8161774007403</v>
+      </c>
+      <c r="D8" t="n">
+        <v>61.1817142919899</v>
+      </c>
+      <c r="E8" t="n">
+        <v>59.4382375827552</v>
+      </c>
+      <c r="F8" t="n">
+        <v>56.9416209070041</v>
+      </c>
+      <c r="G8" t="n">
+        <v>60.2765563749037</v>
+      </c>
+      <c r="H8" t="n">
+        <v>59.4389900590219</v>
+      </c>
+      <c r="I8" t="n">
+        <v>42.3330458976931</v>
+      </c>
+      <c r="J8" t="n">
+        <v>59.6150471525424</v>
+      </c>
+      <c r="K8" t="n">
+        <v>73.3747769457712</v>
+      </c>
+      <c r="L8" t="n">
+        <v>55.497012199229</v>
+      </c>
+      <c r="M8" t="n">
+        <v>49.1397646274138</v>
+      </c>
+      <c r="N8" t="n">
+        <v>44.0777922283361</v>
+      </c>
+      <c r="O8" t="n">
+        <v>54.555464896613</v>
+      </c>
+      <c r="P8" t="n">
+        <v>59.2336862798863</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>54.0134850319109</v>
+      </c>
+      <c r="R8" t="n">
+        <v>50.3033844413143</v>
+      </c>
+      <c r="S8" t="n">
+        <v>53.6580762616147</v>
+      </c>
+      <c r="T8" t="n">
+        <v>58.7228037348947</v>
+      </c>
+      <c r="U8" t="n">
+        <v>64.4291093474132</v>
+      </c>
+      <c r="V8" t="n">
+        <v>46.1410637163443</v>
+      </c>
+      <c r="W8" t="n">
+        <v>56.1302418014279</v>
+      </c>
+      <c r="X8" t="n">
+        <v>57.9052270146745</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>51.2968367785578</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>52.7460178328423</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>62.4053457240906</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>61.1081384332609</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>54.7211414629802</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>62.5467899756517</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>53.0970530613531</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>48.225431207169</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>60.283636158587</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>58.015009564605</v>
       </c>
     </row>
   </sheetData>

--- a/03_ips_clean/09_data_web/03_op.xlsx
+++ b/03_ips_clean/09_data_web/03_op.xlsx
@@ -554,103 +554,103 @@
         <v>2015</v>
       </c>
       <c r="B2" t="n">
-        <v>48.0983276566098</v>
+        <v>46.4323812622894</v>
       </c>
       <c r="C2" t="n">
-        <v>50.9192644091331</v>
+        <v>50.8429981544583</v>
       </c>
       <c r="D2" t="n">
-        <v>51.0444328705443</v>
+        <v>51.4173476867638</v>
       </c>
       <c r="E2" t="n">
-        <v>51.5427744763604</v>
+        <v>50.2288888035086</v>
       </c>
       <c r="F2" t="n">
-        <v>48.9574804837526</v>
+        <v>45.4223277980412</v>
       </c>
       <c r="G2" t="n">
-        <v>49.3661101469688</v>
+        <v>48.8079726881773</v>
       </c>
       <c r="H2" t="n">
-        <v>53.0757765330838</v>
+        <v>51.3708372528511</v>
       </c>
       <c r="I2" t="n">
-        <v>35.4397717126918</v>
+        <v>34.3299923758032</v>
       </c>
       <c r="J2" t="n">
-        <v>52.0205034425685</v>
+        <v>53.5053302503745</v>
       </c>
       <c r="K2" t="n">
-        <v>63.2529004907958</v>
+        <v>61.5765762517752</v>
       </c>
       <c r="L2" t="n">
-        <v>46.9858279274083</v>
+        <v>47.2487628268204</v>
       </c>
       <c r="M2" t="n">
-        <v>39.7960538450611</v>
+        <v>37.8700265258579</v>
       </c>
       <c r="N2" t="n">
-        <v>36.3618070958855</v>
+        <v>34.0147594252927</v>
       </c>
       <c r="O2" t="n">
-        <v>44.7728958632682</v>
+        <v>41.8142571560647</v>
       </c>
       <c r="P2" t="n">
-        <v>50.9291188242156</v>
+        <v>51.0133291528502</v>
       </c>
       <c r="Q2" t="n">
-        <v>46.7392077692247</v>
+        <v>45.4570128794748</v>
       </c>
       <c r="R2" t="n">
-        <v>42.6964868527132</v>
+        <v>40.9230833413591</v>
       </c>
       <c r="S2" t="n">
-        <v>48.1635119129752</v>
+        <v>44.8513687823293</v>
       </c>
       <c r="T2" t="n">
-        <v>50.4990074264789</v>
+        <v>48.1404189301813</v>
       </c>
       <c r="U2" t="n">
-        <v>59.1326756534721</v>
+        <v>58.1537529550282</v>
       </c>
       <c r="V2" t="n">
-        <v>35.9885065618088</v>
+        <v>33.298339288588</v>
       </c>
       <c r="W2" t="n">
-        <v>45.3728239044752</v>
+        <v>42.4208935481554</v>
       </c>
       <c r="X2" t="n">
-        <v>49.9925759327298</v>
+        <v>48.8099421067065</v>
       </c>
       <c r="Y2" t="n">
-        <v>46.6263864803952</v>
+        <v>45.9626237815306</v>
       </c>
       <c r="Z2" t="n">
-        <v>48.4901153874882</v>
+        <v>46.2101260383284</v>
       </c>
       <c r="AA2" t="n">
-        <v>51.2134352540781</v>
+        <v>48.6461840292412</v>
       </c>
       <c r="AB2" t="n">
-        <v>55.0514671205328</v>
+        <v>54.1951128916521</v>
       </c>
       <c r="AC2" t="n">
-        <v>45.2384084768014</v>
+        <v>43.2568187838253</v>
       </c>
       <c r="AD2" t="n">
-        <v>52.0732124246719</v>
+        <v>50.9243170158914</v>
       </c>
       <c r="AE2" t="n">
-        <v>47.8973427351085</v>
+        <v>47.3553295709668</v>
       </c>
       <c r="AF2" t="n">
-        <v>41.847417848496</v>
+        <v>39.7880755935172</v>
       </c>
       <c r="AG2" t="n">
-        <v>50.2999327812831</v>
+        <v>46.1662759880146</v>
       </c>
       <c r="AH2" t="n">
-        <v>45.0300391532212</v>
+        <v>45.0209633856055</v>
       </c>
     </row>
     <row r="3">
@@ -658,103 +658,103 @@
         <v>2016</v>
       </c>
       <c r="B3" t="n">
-        <v>49.1697574402039</v>
+        <v>47.5682566379712</v>
       </c>
       <c r="C3" t="n">
-        <v>51.5000064455427</v>
+        <v>51.7961811581262</v>
       </c>
       <c r="D3" t="n">
-        <v>53.8760899567006</v>
+        <v>53.7252365366023</v>
       </c>
       <c r="E3" t="n">
-        <v>52.3905938848554</v>
+        <v>51.3461448310527</v>
       </c>
       <c r="F3" t="n">
-        <v>50.0327612093983</v>
+        <v>46.6776092641222</v>
       </c>
       <c r="G3" t="n">
-        <v>52.3909644739212</v>
+        <v>52.1362687813351</v>
       </c>
       <c r="H3" t="n">
-        <v>52.0322241076073</v>
+        <v>50.5965760126753</v>
       </c>
       <c r="I3" t="n">
-        <v>35.6164492756392</v>
+        <v>34.0055898794639</v>
       </c>
       <c r="J3" t="n">
-        <v>52.9078310613599</v>
+        <v>52.0833860983346</v>
       </c>
       <c r="K3" t="n">
-        <v>66.6246302026389</v>
+        <v>65.6626869981142</v>
       </c>
       <c r="L3" t="n">
-        <v>51.1193326062267</v>
+        <v>50.5831669276636</v>
       </c>
       <c r="M3" t="n">
-        <v>44.5599604372882</v>
+        <v>42.84681896834</v>
       </c>
       <c r="N3" t="n">
-        <v>37.2864432291258</v>
+        <v>35.3137731586366</v>
       </c>
       <c r="O3" t="n">
-        <v>46.2789353367231</v>
+        <v>43.3903032761076</v>
       </c>
       <c r="P3" t="n">
-        <v>50.9410169757044</v>
+        <v>50.8193360064694</v>
       </c>
       <c r="Q3" t="n">
-        <v>48.2704352435707</v>
+        <v>47.296957062671</v>
       </c>
       <c r="R3" t="n">
-        <v>43.4219505096898</v>
+        <v>41.8245839498015</v>
       </c>
       <c r="S3" t="n">
-        <v>48.1496144892098</v>
+        <v>44.9597761792384</v>
       </c>
       <c r="T3" t="n">
-        <v>50.1684242791853</v>
+        <v>47.4645501644297</v>
       </c>
       <c r="U3" t="n">
-        <v>56.8254508888399</v>
+        <v>55.0244503880967</v>
       </c>
       <c r="V3" t="n">
-        <v>37.2028769676253</v>
+        <v>34.531516459935</v>
       </c>
       <c r="W3" t="n">
-        <v>46.6864174798746</v>
+        <v>43.8571213923674</v>
       </c>
       <c r="X3" t="n">
-        <v>51.0162328804699</v>
+        <v>48.1849977503727</v>
       </c>
       <c r="Y3" t="n">
-        <v>48.1758794880188</v>
+        <v>47.8886122296264</v>
       </c>
       <c r="Z3" t="n">
-        <v>46.8836813607636</v>
+        <v>44.3626705668862</v>
       </c>
       <c r="AA3" t="n">
-        <v>52.6757405167696</v>
+        <v>51.9251697684047</v>
       </c>
       <c r="AB3" t="n">
-        <v>54.7666409573149</v>
+        <v>54.0491021655996</v>
       </c>
       <c r="AC3" t="n">
-        <v>45.3887221259393</v>
+        <v>44.0071135468972</v>
       </c>
       <c r="AD3" t="n">
-        <v>51.8282281013799</v>
+        <v>50.3363505254638</v>
       </c>
       <c r="AE3" t="n">
-        <v>46.5329740692032</v>
+        <v>45.2420939014782</v>
       </c>
       <c r="AF3" t="n">
-        <v>42.291322894072</v>
+        <v>40.8559124883991</v>
       </c>
       <c r="AG3" t="n">
-        <v>51.267008785818</v>
+        <v>47.0931032398317</v>
       </c>
       <c r="AH3" t="n">
-        <v>48.564321607107</v>
+        <v>47.8555558460722</v>
       </c>
     </row>
     <row r="4">
@@ -762,103 +762,103 @@
         <v>2017</v>
       </c>
       <c r="B4" t="n">
-        <v>50.747498930488</v>
+        <v>49.046203722715</v>
       </c>
       <c r="C4" t="n">
-        <v>53.1169599067324</v>
+        <v>53.0642069390764</v>
       </c>
       <c r="D4" t="n">
-        <v>55.2453328973312</v>
+        <v>54.877370954737</v>
       </c>
       <c r="E4" t="n">
-        <v>55.0474924649228</v>
+        <v>53.4460981218466</v>
       </c>
       <c r="F4" t="n">
-        <v>49.8866006893327</v>
+        <v>46.8735833936637</v>
       </c>
       <c r="G4" t="n">
-        <v>54.0377589676882</v>
+        <v>53.5974842935597</v>
       </c>
       <c r="H4" t="n">
-        <v>51.9572315621422</v>
+        <v>50.336480958868</v>
       </c>
       <c r="I4" t="n">
-        <v>39.4872978478466</v>
+        <v>37.6770491556724</v>
       </c>
       <c r="J4" t="n">
-        <v>54.2329939544354</v>
+        <v>53.4154665708802</v>
       </c>
       <c r="K4" t="n">
-        <v>66.6781383706917</v>
+        <v>65.0071421597582</v>
       </c>
       <c r="L4" t="n">
-        <v>50.3909351562906</v>
+        <v>50.4451884017094</v>
       </c>
       <c r="M4" t="n">
-        <v>47.4048175477351</v>
+        <v>45.9903414301923</v>
       </c>
       <c r="N4" t="n">
-        <v>38.3055288998705</v>
+        <v>36.101503948125</v>
       </c>
       <c r="O4" t="n">
-        <v>47.3757404089268</v>
+        <v>44.82573582215</v>
       </c>
       <c r="P4" t="n">
-        <v>52.1338006407215</v>
+        <v>51.8440892077556</v>
       </c>
       <c r="Q4" t="n">
-        <v>51.8652216252</v>
+        <v>50.6838395522807</v>
       </c>
       <c r="R4" t="n">
-        <v>45.6463785961163</v>
+        <v>43.8499278980317</v>
       </c>
       <c r="S4" t="n">
-        <v>48.3591002191284</v>
+        <v>44.994202332381</v>
       </c>
       <c r="T4" t="n">
-        <v>51.7722218700314</v>
+        <v>48.9744937357448</v>
       </c>
       <c r="U4" t="n">
-        <v>57.0166612143692</v>
+        <v>55.6528555513473</v>
       </c>
       <c r="V4" t="n">
-        <v>37.7595737227137</v>
+        <v>35.7451747933263</v>
       </c>
       <c r="W4" t="n">
-        <v>49.1953931708315</v>
+        <v>46.2924547707411</v>
       </c>
       <c r="X4" t="n">
-        <v>52.4186896602427</v>
+        <v>50.1333049006078</v>
       </c>
       <c r="Y4" t="n">
-        <v>49.0295226036078</v>
+        <v>48.7447946583147</v>
       </c>
       <c r="Z4" t="n">
-        <v>47.0745089308721</v>
+        <v>44.6194848654525</v>
       </c>
       <c r="AA4" t="n">
-        <v>57.533664042441</v>
+        <v>56.4019376147246</v>
       </c>
       <c r="AB4" t="n">
-        <v>56.287259188803</v>
+        <v>55.5279902541933</v>
       </c>
       <c r="AC4" t="n">
-        <v>46.9165225930702</v>
+        <v>45.2262893548539</v>
       </c>
       <c r="AD4" t="n">
-        <v>53.1897675678802</v>
+        <v>51.4013186752989</v>
       </c>
       <c r="AE4" t="n">
-        <v>48.8324335538097</v>
+        <v>47.2689638140533</v>
       </c>
       <c r="AF4" t="n">
-        <v>44.4083289787167</v>
+        <v>42.7221488918035</v>
       </c>
       <c r="AG4" t="n">
-        <v>53.7353295086557</v>
+        <v>49.2882499002926</v>
       </c>
       <c r="AH4" t="n">
-        <v>49.089782267573</v>
+        <v>48.5540008417904</v>
       </c>
     </row>
     <row r="5">
@@ -866,103 +866,103 @@
         <v>2018</v>
       </c>
       <c r="B5" t="n">
-        <v>53.7578545200421</v>
+        <v>52.0549861116481</v>
       </c>
       <c r="C5" t="n">
-        <v>58.9449487643915</v>
+        <v>57.9458434081576</v>
       </c>
       <c r="D5" t="n">
-        <v>57.3934140683498</v>
+        <v>56.7160683104702</v>
       </c>
       <c r="E5" t="n">
-        <v>59.3227536167945</v>
+        <v>58.3088313995893</v>
       </c>
       <c r="F5" t="n">
-        <v>51.6966631907102</v>
+        <v>48.551460125657</v>
       </c>
       <c r="G5" t="n">
-        <v>57.1726601068038</v>
+        <v>56.5088838195082</v>
       </c>
       <c r="H5" t="n">
-        <v>57.2313428041872</v>
+        <v>55.5132921646683</v>
       </c>
       <c r="I5" t="n">
-        <v>38.9316444678123</v>
+        <v>38.0957003737147</v>
       </c>
       <c r="J5" t="n">
-        <v>58.5637584796898</v>
+        <v>57.1181739190085</v>
       </c>
       <c r="K5" t="n">
-        <v>74.9954758496989</v>
+        <v>72.1023061623757</v>
       </c>
       <c r="L5" t="n">
-        <v>52.1010689865781</v>
+        <v>51.7426337406252</v>
       </c>
       <c r="M5" t="n">
-        <v>49.182922939684</v>
+        <v>48.157852899252</v>
       </c>
       <c r="N5" t="n">
-        <v>38.8968827516935</v>
+        <v>37.4014016866899</v>
       </c>
       <c r="O5" t="n">
-        <v>50.6894214089267</v>
+        <v>47.977373397274</v>
       </c>
       <c r="P5" t="n">
-        <v>56.5046579097435</v>
+        <v>56.4549109220151</v>
       </c>
       <c r="Q5" t="n">
-        <v>53.8269944719003</v>
+        <v>51.9668999794783</v>
       </c>
       <c r="R5" t="n">
-        <v>48.8962440669591</v>
+        <v>47.582817381444</v>
       </c>
       <c r="S5" t="n">
-        <v>52.0406701049237</v>
+        <v>48.7014104445984</v>
       </c>
       <c r="T5" t="n">
-        <v>54.1476344820218</v>
+        <v>52.0222034335635</v>
       </c>
       <c r="U5" t="n">
-        <v>62.3018891408676</v>
+        <v>61.5496049308856</v>
       </c>
       <c r="V5" t="n">
-        <v>42.3961136997162</v>
+        <v>39.3191293532641</v>
       </c>
       <c r="W5" t="n">
-        <v>54.4669277288213</v>
+        <v>51.5477042915059</v>
       </c>
       <c r="X5" t="n">
-        <v>56.3047545409296</v>
+        <v>52.7752942399276</v>
       </c>
       <c r="Y5" t="n">
-        <v>52.0970944323739</v>
+        <v>50.5900768822449</v>
       </c>
       <c r="Z5" t="n">
-        <v>50.9545795807581</v>
+        <v>48.8942532554742</v>
       </c>
       <c r="AA5" t="n">
-        <v>59.062296581735</v>
+        <v>56.5421375233959</v>
       </c>
       <c r="AB5" t="n">
-        <v>59.3871832196631</v>
+        <v>58.3005834661019</v>
       </c>
       <c r="AC5" t="n">
-        <v>47.1898465130774</v>
+        <v>45.5683002350488</v>
       </c>
       <c r="AD5" t="n">
-        <v>58.244905477828</v>
+        <v>56.5431141816052</v>
       </c>
       <c r="AE5" t="n">
-        <v>52.1298382749669</v>
+        <v>50.0747090216984</v>
       </c>
       <c r="AF5" t="n">
-        <v>46.9752990127213</v>
+        <v>45.2126174616963</v>
       </c>
       <c r="AG5" t="n">
-        <v>56.1438622880876</v>
+        <v>51.7188669699568</v>
       </c>
       <c r="AH5" t="n">
-        <v>53.8919299986706</v>
+        <v>53.1921995352696</v>
       </c>
     </row>
     <row r="6">
@@ -970,103 +970,103 @@
         <v>2019</v>
       </c>
       <c r="B6" t="n">
-        <v>54.4491439638919</v>
+        <v>54.0539541680567</v>
       </c>
       <c r="C6" t="n">
-        <v>59.3129227445191</v>
+        <v>58.4315471955866</v>
       </c>
       <c r="D6" t="n">
-        <v>59.4471921172481</v>
+        <v>59.4902414983082</v>
       </c>
       <c r="E6" t="n">
-        <v>59.9471018981831</v>
+        <v>59.2242923829034</v>
       </c>
       <c r="F6" t="n">
-        <v>51.2323449021757</v>
+        <v>49.4845282905209</v>
       </c>
       <c r="G6" t="n">
-        <v>59.4892316139428</v>
+        <v>58.7890329085387</v>
       </c>
       <c r="H6" t="n">
-        <v>57.0759444438721</v>
+        <v>56.8441890753183</v>
       </c>
       <c r="I6" t="n">
-        <v>38.9152816210701</v>
+        <v>38.3719430389509</v>
       </c>
       <c r="J6" t="n">
-        <v>59.1048535292097</v>
+        <v>59.3658364296547</v>
       </c>
       <c r="K6" t="n">
-        <v>73.9655612664973</v>
+        <v>72.5554033818779</v>
       </c>
       <c r="L6" t="n">
-        <v>54.9991779748542</v>
+        <v>54.3614353464836</v>
       </c>
       <c r="M6" t="n">
-        <v>48.7253125954687</v>
+        <v>48.7549578910042</v>
       </c>
       <c r="N6" t="n">
-        <v>38.7728508110091</v>
+        <v>37.6134721090155</v>
       </c>
       <c r="O6" t="n">
-        <v>53.6823990449345</v>
+        <v>51.8801555885891</v>
       </c>
       <c r="P6" t="n">
-        <v>57.5904535668546</v>
+        <v>57.3642147238033</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.6158253348721</v>
+        <v>52.6086715684864</v>
       </c>
       <c r="R6" t="n">
-        <v>50.123026796364</v>
+        <v>49.1264859980997</v>
       </c>
       <c r="S6" t="n">
-        <v>54.5997803610745</v>
+        <v>51.2212433357538</v>
       </c>
       <c r="T6" t="n">
-        <v>55.172086883532</v>
+        <v>54.3374785916314</v>
       </c>
       <c r="U6" t="n">
-        <v>63.2994533808124</v>
+        <v>62.9447014666395</v>
       </c>
       <c r="V6" t="n">
-        <v>43.067816908763</v>
+        <v>40.7846012521236</v>
       </c>
       <c r="W6" t="n">
-        <v>54.692919239475</v>
+        <v>53.1736809174704</v>
       </c>
       <c r="X6" t="n">
-        <v>56.9088448338476</v>
+        <v>55.0637774791009</v>
       </c>
       <c r="Y6" t="n">
-        <v>53.4152971804453</v>
+        <v>51.941826750621</v>
       </c>
       <c r="Z6" t="n">
-        <v>52.9924643993978</v>
+        <v>51.9570085921708</v>
       </c>
       <c r="AA6" t="n">
-        <v>57.9431524871131</v>
+        <v>57.6950106404746</v>
       </c>
       <c r="AB6" t="n">
-        <v>58.9347551716098</v>
+        <v>59.3771201438644</v>
       </c>
       <c r="AC6" t="n">
-        <v>49.5991562511301</v>
+        <v>49.1406769554697</v>
       </c>
       <c r="AD6" t="n">
-        <v>60.0069502725142</v>
+        <v>59.8830863787868</v>
       </c>
       <c r="AE6" t="n">
-        <v>52.4009223314062</v>
+        <v>51.6219568137387</v>
       </c>
       <c r="AF6" t="n">
-        <v>47.2344952156516</v>
+        <v>46.0933945476648</v>
       </c>
       <c r="AG6" t="n">
-        <v>57.3922226085584</v>
+        <v>53.9804079629189</v>
       </c>
       <c r="AH6" t="n">
-        <v>55.0606218398577</v>
+        <v>55.0060903542304</v>
       </c>
     </row>
     <row r="7">
@@ -1074,103 +1074,103 @@
         <v>2020</v>
       </c>
       <c r="B7" t="n">
-        <v>56.3398824132849</v>
+        <v>57.1379241736516</v>
       </c>
       <c r="C7" t="n">
-        <v>61.9701276509363</v>
+        <v>62.5217974089355</v>
       </c>
       <c r="D7" t="n">
-        <v>63.2237632139971</v>
+        <v>64.2826362986113</v>
       </c>
       <c r="E7" t="n">
-        <v>59.7977240744068</v>
+        <v>60.4960099811166</v>
       </c>
       <c r="F7" t="n">
-        <v>56.2842872370323</v>
+        <v>56.0122582683664</v>
       </c>
       <c r="G7" t="n">
-        <v>61.5228126596211</v>
+        <v>61.7781558307375</v>
       </c>
       <c r="H7" t="n">
-        <v>60.5946749115779</v>
+        <v>60.9308282846597</v>
       </c>
       <c r="I7" t="n">
-        <v>40.9389646039793</v>
+        <v>41.3695828863836</v>
       </c>
       <c r="J7" t="n">
-        <v>60.1006397599254</v>
+        <v>61.1288188665826</v>
       </c>
       <c r="K7" t="n">
-        <v>74.7020414759257</v>
+        <v>74.8715145384386</v>
       </c>
       <c r="L7" t="n">
-        <v>56.9870829397028</v>
+        <v>57.3449348918661</v>
       </c>
       <c r="M7" t="n">
-        <v>49.6524455048786</v>
+        <v>50.5172565496771</v>
       </c>
       <c r="N7" t="n">
-        <v>43.1042879867335</v>
+        <v>41.7865547838589</v>
       </c>
       <c r="O7" t="n">
-        <v>54.9440669660332</v>
+        <v>53.524105690866</v>
       </c>
       <c r="P7" t="n">
-        <v>59.8142472385347</v>
+        <v>61.1075325027744</v>
       </c>
       <c r="Q7" t="n">
-        <v>55.4971707686316</v>
+        <v>55.8048943946887</v>
       </c>
       <c r="R7" t="n">
-        <v>50.3430475146134</v>
+        <v>50.5670072757026</v>
       </c>
       <c r="S7" t="n">
-        <v>55.2158153752613</v>
+        <v>53.7146438128049</v>
       </c>
       <c r="T7" t="n">
-        <v>57.0097720940257</v>
+        <v>57.2721297200959</v>
       </c>
       <c r="U7" t="n">
-        <v>65.2126157776324</v>
+        <v>66.7018572559181</v>
       </c>
       <c r="V7" t="n">
-        <v>45.9011363697355</v>
+        <v>44.7973773399854</v>
       </c>
       <c r="W7" t="n">
-        <v>54.913563694289</v>
+        <v>53.7735578955212</v>
       </c>
       <c r="X7" t="n">
-        <v>60.0375839934544</v>
+        <v>59.7893334467864</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.1263408101335</v>
+        <v>53.3662681409608</v>
       </c>
       <c r="Z7" t="n">
-        <v>54.5034609949132</v>
+        <v>54.431721667202</v>
       </c>
       <c r="AA7" t="n">
-        <v>61.3064877944661</v>
+        <v>62.4320010257894</v>
       </c>
       <c r="AB7" t="n">
-        <v>61.9766109541792</v>
+        <v>63.8575470739427</v>
       </c>
       <c r="AC7" t="n">
-        <v>53.6975707193465</v>
+        <v>53.5171447371446</v>
       </c>
       <c r="AD7" t="n">
-        <v>63.9483251593713</v>
+        <v>64.1232417839346</v>
       </c>
       <c r="AE7" t="n">
-        <v>54.4344607178519</v>
+        <v>54.8678661513982</v>
       </c>
       <c r="AF7" t="n">
-        <v>50.4454529929393</v>
+        <v>50.0081070005006</v>
       </c>
       <c r="AG7" t="n">
-        <v>59.9692369811118</v>
+        <v>58.1619929695211</v>
       </c>
       <c r="AH7" t="n">
-        <v>56.1056150080873</v>
+        <v>57.3345635694539</v>
       </c>
     </row>
     <row r="8">
@@ -1178,103 +1178,207 @@
         <v>2021</v>
       </c>
       <c r="B8" t="n">
-        <v>55.6188749101629</v>
+        <v>55.770477594349</v>
       </c>
       <c r="C8" t="n">
-        <v>60.8161774007403</v>
+        <v>62.2969041519879</v>
       </c>
       <c r="D8" t="n">
-        <v>61.1817142919899</v>
+        <v>63.8783816807588</v>
       </c>
       <c r="E8" t="n">
-        <v>59.4382375827552</v>
+        <v>59.5353665282405</v>
       </c>
       <c r="F8" t="n">
-        <v>56.9416209070041</v>
+        <v>55.5205064307055</v>
       </c>
       <c r="G8" t="n">
-        <v>60.2765563749037</v>
+        <v>62.0156662165721</v>
       </c>
       <c r="H8" t="n">
-        <v>59.4389900590219</v>
+        <v>60.478252010085</v>
       </c>
       <c r="I8" t="n">
-        <v>42.3330458976931</v>
+        <v>41.0359600673822</v>
       </c>
       <c r="J8" t="n">
-        <v>59.6150471525424</v>
+        <v>61.0094432348254</v>
       </c>
       <c r="K8" t="n">
-        <v>73.3747769457712</v>
+        <v>73.3132884470582</v>
       </c>
       <c r="L8" t="n">
-        <v>55.497012199229</v>
+        <v>56.8235788904134</v>
       </c>
       <c r="M8" t="n">
-        <v>49.1397646274138</v>
+        <v>50.4124421871637</v>
       </c>
       <c r="N8" t="n">
-        <v>44.0777922283361</v>
+        <v>41.380697779101</v>
       </c>
       <c r="O8" t="n">
-        <v>54.555464896613</v>
+        <v>53.6642688558189</v>
       </c>
       <c r="P8" t="n">
-        <v>59.2336862798863</v>
+        <v>60.8868714615338</v>
       </c>
       <c r="Q8" t="n">
-        <v>54.0134850319109</v>
+        <v>55.3070151632575</v>
       </c>
       <c r="R8" t="n">
-        <v>50.3033844413143</v>
+        <v>50.471778947601</v>
       </c>
       <c r="S8" t="n">
-        <v>53.6580762616147</v>
+        <v>53.7848616311307</v>
       </c>
       <c r="T8" t="n">
-        <v>58.7228037348947</v>
+        <v>58.794034194473</v>
       </c>
       <c r="U8" t="n">
-        <v>64.4291093474132</v>
+        <v>65.6544172976912</v>
       </c>
       <c r="V8" t="n">
-        <v>46.1410637163443</v>
+        <v>43.3789061884486</v>
       </c>
       <c r="W8" t="n">
-        <v>56.1302418014279</v>
+        <v>54.2970304846019</v>
       </c>
       <c r="X8" t="n">
-        <v>57.9052270146745</v>
+        <v>58.1417681094563</v>
       </c>
       <c r="Y8" t="n">
-        <v>51.2968367785578</v>
+        <v>52.7467078262853</v>
       </c>
       <c r="Z8" t="n">
-        <v>52.7460178328423</v>
+        <v>53.0308068925554</v>
       </c>
       <c r="AA8" t="n">
-        <v>62.4053457240906</v>
+        <v>62.5648419550403</v>
       </c>
       <c r="AB8" t="n">
-        <v>61.1081384332609</v>
+        <v>62.5038431735525</v>
       </c>
       <c r="AC8" t="n">
-        <v>54.7211414629802</v>
+        <v>54.0775728557526</v>
       </c>
       <c r="AD8" t="n">
-        <v>62.5467899756517</v>
+        <v>62.9426786775324</v>
       </c>
       <c r="AE8" t="n">
-        <v>53.0970530613531</v>
+        <v>53.2982956945116</v>
       </c>
       <c r="AF8" t="n">
-        <v>48.225431207169</v>
+        <v>47.5947309802277</v>
       </c>
       <c r="AG8" t="n">
-        <v>60.283636158587</v>
+        <v>59.079366334099</v>
       </c>
       <c r="AH8" t="n">
-        <v>58.015009564605</v>
+        <v>57.7186198278116</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B9" t="n">
+        <v>56.5344314963228</v>
+      </c>
+      <c r="C9" t="n">
+        <v>61.1052652025937</v>
+      </c>
+      <c r="D9" t="n">
+        <v>63.6900569734689</v>
+      </c>
+      <c r="E9" t="n">
+        <v>60.8233934131904</v>
+      </c>
+      <c r="F9" t="n">
+        <v>54.4314303138557</v>
+      </c>
+      <c r="G9" t="n">
+        <v>62.9374828885683</v>
+      </c>
+      <c r="H9" t="n">
+        <v>61.2934167845668</v>
+      </c>
+      <c r="I9" t="n">
+        <v>42.0188938524443</v>
+      </c>
+      <c r="J9" t="n">
+        <v>60.9378367450501</v>
+      </c>
+      <c r="K9" t="n">
+        <v>75.4939861000258</v>
+      </c>
+      <c r="L9" t="n">
+        <v>57.2871582867849</v>
+      </c>
+      <c r="M9" t="n">
+        <v>54.6154287437538</v>
+      </c>
+      <c r="N9" t="n">
+        <v>41.8928960444605</v>
+      </c>
+      <c r="O9" t="n">
+        <v>53.7577954873081</v>
+      </c>
+      <c r="P9" t="n">
+        <v>62.2050681302235</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>56.3230781700845</v>
+      </c>
+      <c r="R9" t="n">
+        <v>51.4597698840099</v>
+      </c>
+      <c r="S9" t="n">
+        <v>54.9402973135824</v>
+      </c>
+      <c r="T9" t="n">
+        <v>59.4907083112898</v>
+      </c>
+      <c r="U9" t="n">
+        <v>65.6743530603934</v>
+      </c>
+      <c r="V9" t="n">
+        <v>43.9750552845186</v>
+      </c>
+      <c r="W9" t="n">
+        <v>56.0611075871964</v>
+      </c>
+      <c r="X9" t="n">
+        <v>58.3919160563228</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>55.5498027879939</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>54.2958069470945</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>63.1150891742689</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>59.2908341442753</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>52.3121416983437</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>62.691599824739</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>54.452326908592</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>49.0308412027207</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>59.1417155160955</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>58.5565036941428</v>
       </c>
     </row>
   </sheetData>

--- a/03_ips_clean/09_data_web/03_op.xlsx
+++ b/03_ips_clean/09_data_web/03_op.xlsx
@@ -554,103 +554,103 @@
         <v>2015</v>
       </c>
       <c r="B2" t="n">
-        <v>46.4323812622894</v>
+        <v>47.6414422626017</v>
       </c>
       <c r="C2" t="n">
-        <v>50.8429981544583</v>
+        <v>54.6193298375856</v>
       </c>
       <c r="D2" t="n">
-        <v>51.4173476867638</v>
+        <v>50.7585036112327</v>
       </c>
       <c r="E2" t="n">
-        <v>50.2288888035086</v>
+        <v>52.6911904398842</v>
       </c>
       <c r="F2" t="n">
-        <v>45.4223277980412</v>
+        <v>46.7496994181465</v>
       </c>
       <c r="G2" t="n">
-        <v>48.8079726881773</v>
+        <v>50.9445597554285</v>
       </c>
       <c r="H2" t="n">
-        <v>51.3708372528511</v>
+        <v>51.9695500723344</v>
       </c>
       <c r="I2" t="n">
-        <v>34.3299923758032</v>
+        <v>33.5965220127047</v>
       </c>
       <c r="J2" t="n">
-        <v>53.5053302503745</v>
+        <v>48.7970136023509</v>
       </c>
       <c r="K2" t="n">
-        <v>61.5765762517752</v>
+        <v>59.2682527139774</v>
       </c>
       <c r="L2" t="n">
-        <v>47.2487628268204</v>
+        <v>45.6102577193095</v>
       </c>
       <c r="M2" t="n">
-        <v>37.8700265258579</v>
+        <v>44.3251555156867</v>
       </c>
       <c r="N2" t="n">
-        <v>34.0147594252927</v>
+        <v>35.299551799005</v>
       </c>
       <c r="O2" t="n">
-        <v>41.8142571560647</v>
+        <v>43.4317267957601</v>
       </c>
       <c r="P2" t="n">
-        <v>51.0133291528502</v>
+        <v>51.7882035754183</v>
       </c>
       <c r="Q2" t="n">
-        <v>45.4570128794748</v>
+        <v>45.9924659392571</v>
       </c>
       <c r="R2" t="n">
-        <v>40.9230833413591</v>
+        <v>43.9064373992269</v>
       </c>
       <c r="S2" t="n">
-        <v>44.8513687823293</v>
+        <v>46.7805890025387</v>
       </c>
       <c r="T2" t="n">
-        <v>48.1404189301813</v>
+        <v>48.3304342844744</v>
       </c>
       <c r="U2" t="n">
-        <v>58.1537529550282</v>
+        <v>56.9781850611243</v>
       </c>
       <c r="V2" t="n">
-        <v>33.298339288588</v>
+        <v>35.4350735269469</v>
       </c>
       <c r="W2" t="n">
-        <v>42.4208935481554</v>
+        <v>42.7694711359688</v>
       </c>
       <c r="X2" t="n">
-        <v>48.8099421067065</v>
+        <v>54.7167275922061</v>
       </c>
       <c r="Y2" t="n">
-        <v>45.9626237815306</v>
+        <v>48.4096839805973</v>
       </c>
       <c r="Z2" t="n">
-        <v>46.2101260383284</v>
+        <v>47.8092053129448</v>
       </c>
       <c r="AA2" t="n">
-        <v>48.6461840292412</v>
+        <v>49.6053022465208</v>
       </c>
       <c r="AB2" t="n">
-        <v>54.1951128916521</v>
+        <v>54.670774438117</v>
       </c>
       <c r="AC2" t="n">
-        <v>43.2568187838253</v>
+        <v>44.8382066747431</v>
       </c>
       <c r="AD2" t="n">
-        <v>50.9243170158914</v>
+        <v>50.2954568826495</v>
       </c>
       <c r="AE2" t="n">
-        <v>47.3553295709668</v>
+        <v>44.46825288892</v>
       </c>
       <c r="AF2" t="n">
-        <v>39.7880755935172</v>
+        <v>40.9302844705583</v>
       </c>
       <c r="AG2" t="n">
-        <v>46.1662759880146</v>
+        <v>50.1006196735144</v>
       </c>
       <c r="AH2" t="n">
-        <v>45.0209633856055</v>
+        <v>47.8016981892359</v>
       </c>
     </row>
     <row r="3">
@@ -658,103 +658,103 @@
         <v>2016</v>
       </c>
       <c r="B3" t="n">
-        <v>47.5682566379712</v>
+        <v>48.9262902351454</v>
       </c>
       <c r="C3" t="n">
-        <v>51.7961811581262</v>
+        <v>54.9362397694607</v>
       </c>
       <c r="D3" t="n">
-        <v>53.7252365366023</v>
+        <v>53.5223174515495</v>
       </c>
       <c r="E3" t="n">
-        <v>51.3461448310527</v>
+        <v>53.8634200735048</v>
       </c>
       <c r="F3" t="n">
-        <v>46.6776092641222</v>
+        <v>47.6778865957733</v>
       </c>
       <c r="G3" t="n">
-        <v>52.1362687813351</v>
+        <v>52.9166583715231</v>
       </c>
       <c r="H3" t="n">
-        <v>50.5965760126753</v>
+        <v>51.8131687373938</v>
       </c>
       <c r="I3" t="n">
-        <v>34.0055898794639</v>
+        <v>34.6475733178738</v>
       </c>
       <c r="J3" t="n">
-        <v>52.0833860983346</v>
+        <v>52.0386649725315</v>
       </c>
       <c r="K3" t="n">
-        <v>65.6626869981142</v>
+        <v>62.2095067194761</v>
       </c>
       <c r="L3" t="n">
-        <v>50.5831669276636</v>
+        <v>48.4654101576512</v>
       </c>
       <c r="M3" t="n">
-        <v>42.84681896834</v>
+        <v>46.7289370489821</v>
       </c>
       <c r="N3" t="n">
-        <v>35.3137731586366</v>
+        <v>36.2100292893326</v>
       </c>
       <c r="O3" t="n">
-        <v>43.3903032761076</v>
+        <v>44.9066168294304</v>
       </c>
       <c r="P3" t="n">
-        <v>50.8193360064694</v>
+        <v>52.8018862769655</v>
       </c>
       <c r="Q3" t="n">
-        <v>47.296957062671</v>
+        <v>47.8197242122501</v>
       </c>
       <c r="R3" t="n">
-        <v>41.8245839498015</v>
+        <v>44.2788342851441</v>
       </c>
       <c r="S3" t="n">
-        <v>44.9597761792384</v>
+        <v>47.1129099976156</v>
       </c>
       <c r="T3" t="n">
-        <v>47.4645501644297</v>
+        <v>47.2702551266733</v>
       </c>
       <c r="U3" t="n">
-        <v>55.0244503880967</v>
+        <v>55.7131712211958</v>
       </c>
       <c r="V3" t="n">
-        <v>34.531516459935</v>
+        <v>37.0138895000231</v>
       </c>
       <c r="W3" t="n">
-        <v>43.8571213923674</v>
+        <v>44.1382119194228</v>
       </c>
       <c r="X3" t="n">
-        <v>48.1849977503727</v>
+        <v>55.4221504321779</v>
       </c>
       <c r="Y3" t="n">
-        <v>47.8886122296264</v>
+        <v>49.5574417339161</v>
       </c>
       <c r="Z3" t="n">
-        <v>44.3626705668862</v>
+        <v>47.75503458673</v>
       </c>
       <c r="AA3" t="n">
-        <v>51.9251697684047</v>
+        <v>51.4671963028783</v>
       </c>
       <c r="AB3" t="n">
-        <v>54.0491021655996</v>
+        <v>55.8126378715353</v>
       </c>
       <c r="AC3" t="n">
-        <v>44.0071135468972</v>
+        <v>45.6687384743608</v>
       </c>
       <c r="AD3" t="n">
-        <v>50.3363505254638</v>
+        <v>49.7546988037158</v>
       </c>
       <c r="AE3" t="n">
-        <v>45.2420939014782</v>
+        <v>44.4861115016949</v>
       </c>
       <c r="AF3" t="n">
-        <v>40.8559124883991</v>
+        <v>42.141511502389</v>
       </c>
       <c r="AG3" t="n">
-        <v>47.0931032398317</v>
+        <v>51.5407002311967</v>
       </c>
       <c r="AH3" t="n">
-        <v>47.8555558460722</v>
+        <v>51.0266262696465</v>
       </c>
     </row>
     <row r="4">
@@ -762,103 +762,103 @@
         <v>2017</v>
       </c>
       <c r="B4" t="n">
-        <v>49.046203722715</v>
+        <v>48.6593107185265</v>
       </c>
       <c r="C4" t="n">
-        <v>53.0642069390764</v>
+        <v>54.3550033766281</v>
       </c>
       <c r="D4" t="n">
-        <v>54.877370954737</v>
+        <v>53.4055243523827</v>
       </c>
       <c r="E4" t="n">
-        <v>53.4460981218466</v>
+        <v>54.0080604291698</v>
       </c>
       <c r="F4" t="n">
-        <v>46.8735833936637</v>
+        <v>47.2984659207557</v>
       </c>
       <c r="G4" t="n">
-        <v>53.5974842935597</v>
+        <v>52.8877982546723</v>
       </c>
       <c r="H4" t="n">
-        <v>50.336480958868</v>
+        <v>51.4702452340383</v>
       </c>
       <c r="I4" t="n">
-        <v>37.6770491556724</v>
+        <v>34.1180406138287</v>
       </c>
       <c r="J4" t="n">
-        <v>53.4154665708802</v>
+        <v>50.918327070819</v>
       </c>
       <c r="K4" t="n">
-        <v>65.0071421597582</v>
+        <v>61.2167721735446</v>
       </c>
       <c r="L4" t="n">
-        <v>50.4451884017094</v>
+        <v>47.6797549375408</v>
       </c>
       <c r="M4" t="n">
-        <v>45.9903414301923</v>
+        <v>46.8096090857885</v>
       </c>
       <c r="N4" t="n">
-        <v>36.101503948125</v>
+        <v>36.5521111838604</v>
       </c>
       <c r="O4" t="n">
-        <v>44.82573582215</v>
+        <v>43.3262263668622</v>
       </c>
       <c r="P4" t="n">
-        <v>51.8440892077556</v>
+        <v>52.4949696416551</v>
       </c>
       <c r="Q4" t="n">
-        <v>50.6838395522807</v>
+        <v>49.322113628887</v>
       </c>
       <c r="R4" t="n">
-        <v>43.8499278980317</v>
+        <v>45.1630518941396</v>
       </c>
       <c r="S4" t="n">
-        <v>44.994202332381</v>
+        <v>47.1038832543743</v>
       </c>
       <c r="T4" t="n">
-        <v>48.9744937357448</v>
+        <v>46.5953489547336</v>
       </c>
       <c r="U4" t="n">
-        <v>55.6528555513473</v>
+        <v>55.6795923003395</v>
       </c>
       <c r="V4" t="n">
-        <v>35.7451747933263</v>
+        <v>36.8398196310381</v>
       </c>
       <c r="W4" t="n">
-        <v>46.2924547707411</v>
+        <v>44.4287891017947</v>
       </c>
       <c r="X4" t="n">
-        <v>50.1333049006078</v>
+        <v>54.7500483011064</v>
       </c>
       <c r="Y4" t="n">
-        <v>48.7447946583147</v>
+        <v>49.6158119420276</v>
       </c>
       <c r="Z4" t="n">
-        <v>44.6194848654525</v>
+        <v>47.6704136212774</v>
       </c>
       <c r="AA4" t="n">
-        <v>56.4019376147246</v>
+        <v>51.1978423639574</v>
       </c>
       <c r="AB4" t="n">
-        <v>55.5279902541933</v>
+        <v>54.9166799630383</v>
       </c>
       <c r="AC4" t="n">
-        <v>45.2262893548539</v>
+        <v>44.6427038261153</v>
       </c>
       <c r="AD4" t="n">
-        <v>51.4013186752989</v>
+        <v>50.3808992842406</v>
       </c>
       <c r="AE4" t="n">
-        <v>47.2689638140533</v>
+        <v>44.8102723743813</v>
       </c>
       <c r="AF4" t="n">
-        <v>42.7221488918035</v>
+        <v>41.4981361988391</v>
       </c>
       <c r="AG4" t="n">
-        <v>49.2882499002926</v>
+        <v>51.6156674814388</v>
       </c>
       <c r="AH4" t="n">
-        <v>48.5540008417904</v>
+        <v>50.9690044874118</v>
       </c>
     </row>
     <row r="5">
@@ -866,103 +866,103 @@
         <v>2018</v>
       </c>
       <c r="B5" t="n">
-        <v>52.0549861116481</v>
+        <v>52.012046538388</v>
       </c>
       <c r="C5" t="n">
-        <v>57.9458434081576</v>
+        <v>59.5389175673527</v>
       </c>
       <c r="D5" t="n">
-        <v>56.7160683104702</v>
+        <v>56.1550797881955</v>
       </c>
       <c r="E5" t="n">
-        <v>58.3088313995893</v>
+        <v>58.3984626958115</v>
       </c>
       <c r="F5" t="n">
-        <v>48.551460125657</v>
+        <v>47.9977547991725</v>
       </c>
       <c r="G5" t="n">
-        <v>56.5088838195082</v>
+        <v>55.5057716696406</v>
       </c>
       <c r="H5" t="n">
-        <v>55.5132921646683</v>
+        <v>54.9409376599366</v>
       </c>
       <c r="I5" t="n">
-        <v>38.0957003737147</v>
+        <v>37.2365409847808</v>
       </c>
       <c r="J5" t="n">
-        <v>57.1181739190085</v>
+        <v>54.905620577492</v>
       </c>
       <c r="K5" t="n">
-        <v>72.1023061623757</v>
+        <v>67.6364629633044</v>
       </c>
       <c r="L5" t="n">
-        <v>51.7426337406252</v>
+        <v>50.5268874397971</v>
       </c>
       <c r="M5" t="n">
-        <v>48.157852899252</v>
+        <v>50.4478082339484</v>
       </c>
       <c r="N5" t="n">
-        <v>37.4014016866899</v>
+        <v>38.7368579576418</v>
       </c>
       <c r="O5" t="n">
-        <v>47.977373397274</v>
+        <v>48.2109554390109</v>
       </c>
       <c r="P5" t="n">
-        <v>56.4549109220151</v>
+        <v>56.5341904572137</v>
       </c>
       <c r="Q5" t="n">
-        <v>51.9668999794783</v>
+        <v>52.3188213987652</v>
       </c>
       <c r="R5" t="n">
-        <v>47.582817381444</v>
+        <v>48.8732587728566</v>
       </c>
       <c r="S5" t="n">
-        <v>48.7014104445984</v>
+        <v>51.0695796111449</v>
       </c>
       <c r="T5" t="n">
-        <v>52.0222034335635</v>
+        <v>49.8081693817497</v>
       </c>
       <c r="U5" t="n">
-        <v>61.5496049308856</v>
+        <v>58.7787366232778</v>
       </c>
       <c r="V5" t="n">
-        <v>39.3191293532641</v>
+        <v>40.8004120061163</v>
       </c>
       <c r="W5" t="n">
-        <v>51.5477042915059</v>
+        <v>49.0918675403675</v>
       </c>
       <c r="X5" t="n">
-        <v>52.7752942399276</v>
+        <v>58.0953245550488</v>
       </c>
       <c r="Y5" t="n">
-        <v>50.5900768822449</v>
+        <v>52.7632096829732</v>
       </c>
       <c r="Z5" t="n">
-        <v>48.8942532554742</v>
+        <v>51.633449792264</v>
       </c>
       <c r="AA5" t="n">
-        <v>56.5421375233959</v>
+        <v>54.8062553894492</v>
       </c>
       <c r="AB5" t="n">
-        <v>58.3005834661019</v>
+        <v>57.8674158329322</v>
       </c>
       <c r="AC5" t="n">
-        <v>45.5683002350488</v>
+        <v>46.8078736856484</v>
       </c>
       <c r="AD5" t="n">
-        <v>56.5431141816052</v>
+        <v>54.7055361279233</v>
       </c>
       <c r="AE5" t="n">
-        <v>50.0747090216984</v>
+        <v>49.6196479610546</v>
       </c>
       <c r="AF5" t="n">
-        <v>45.2126174616963</v>
+        <v>44.6591354055062</v>
       </c>
       <c r="AG5" t="n">
-        <v>51.7188669699568</v>
+        <v>54.3252593261713</v>
       </c>
       <c r="AH5" t="n">
-        <v>53.1921995352696</v>
+        <v>53.9224166115952</v>
       </c>
     </row>
     <row r="6">
@@ -970,103 +970,103 @@
         <v>2019</v>
       </c>
       <c r="B6" t="n">
-        <v>54.0539541680567</v>
+        <v>53.8321932996301</v>
       </c>
       <c r="C6" t="n">
-        <v>58.4315471955866</v>
+        <v>60.6341307556563</v>
       </c>
       <c r="D6" t="n">
-        <v>59.4902414983082</v>
+        <v>57.4860915115474</v>
       </c>
       <c r="E6" t="n">
-        <v>59.2242923829034</v>
+        <v>59.9009151191943</v>
       </c>
       <c r="F6" t="n">
-        <v>49.4845282905209</v>
+        <v>50.1750053974175</v>
       </c>
       <c r="G6" t="n">
-        <v>58.7890329085387</v>
+        <v>57.2990861131422</v>
       </c>
       <c r="H6" t="n">
-        <v>56.8441890753183</v>
+        <v>57.4229166236773</v>
       </c>
       <c r="I6" t="n">
-        <v>38.3719430389509</v>
+        <v>37.2503358145955</v>
       </c>
       <c r="J6" t="n">
-        <v>59.3658364296547</v>
+        <v>57.5876164182606</v>
       </c>
       <c r="K6" t="n">
-        <v>72.5554033818779</v>
+        <v>65.8565276424084</v>
       </c>
       <c r="L6" t="n">
-        <v>54.3614353464836</v>
+        <v>53.1339398165803</v>
       </c>
       <c r="M6" t="n">
-        <v>48.7549578910042</v>
+        <v>52.0986010146041</v>
       </c>
       <c r="N6" t="n">
-        <v>37.6134721090155</v>
+        <v>37.7087882846867</v>
       </c>
       <c r="O6" t="n">
-        <v>51.8801555885891</v>
+        <v>51.2991568324887</v>
       </c>
       <c r="P6" t="n">
-        <v>57.3642147238033</v>
+        <v>56.4728175794209</v>
       </c>
       <c r="Q6" t="n">
-        <v>52.6086715684864</v>
+        <v>51.1150452887447</v>
       </c>
       <c r="R6" t="n">
-        <v>49.1264859980997</v>
+        <v>50.078870672748</v>
       </c>
       <c r="S6" t="n">
-        <v>51.2212433357538</v>
+        <v>53.6043770421458</v>
       </c>
       <c r="T6" t="n">
-        <v>54.3374785916314</v>
+        <v>52.0010932862168</v>
       </c>
       <c r="U6" t="n">
-        <v>62.9447014666395</v>
+        <v>59.4966034578765</v>
       </c>
       <c r="V6" t="n">
-        <v>40.7846012521236</v>
+        <v>42.3042529662444</v>
       </c>
       <c r="W6" t="n">
-        <v>53.1736809174704</v>
+        <v>51.4440752132399</v>
       </c>
       <c r="X6" t="n">
-        <v>55.0637774791009</v>
+        <v>59.4822495497453</v>
       </c>
       <c r="Y6" t="n">
-        <v>51.941826750621</v>
+        <v>53.720786551913</v>
       </c>
       <c r="Z6" t="n">
-        <v>51.9570085921708</v>
+        <v>54.4368486621796</v>
       </c>
       <c r="AA6" t="n">
-        <v>57.6950106404746</v>
+        <v>57.0507039283696</v>
       </c>
       <c r="AB6" t="n">
-        <v>59.3771201438644</v>
+        <v>58.8109876762866</v>
       </c>
       <c r="AC6" t="n">
-        <v>49.1406769554697</v>
+        <v>49.9471839832909</v>
       </c>
       <c r="AD6" t="n">
-        <v>59.8830863787868</v>
+        <v>57.9785686592385</v>
       </c>
       <c r="AE6" t="n">
-        <v>51.6219568137387</v>
+        <v>50.870705978848</v>
       </c>
       <c r="AF6" t="n">
-        <v>46.0933945476648</v>
+        <v>46.3530290934761</v>
       </c>
       <c r="AG6" t="n">
-        <v>53.9804079629189</v>
+        <v>55.6530110055909</v>
       </c>
       <c r="AH6" t="n">
-        <v>55.0060903542304</v>
+        <v>54.8373678709795</v>
       </c>
     </row>
     <row r="7">
@@ -1074,103 +1074,103 @@
         <v>2020</v>
       </c>
       <c r="B7" t="n">
-        <v>57.1379241736516</v>
+        <v>56.8526173065648</v>
       </c>
       <c r="C7" t="n">
-        <v>62.5217974089355</v>
+        <v>63.1936083030862</v>
       </c>
       <c r="D7" t="n">
-        <v>64.2826362986113</v>
+        <v>62.187061358968</v>
       </c>
       <c r="E7" t="n">
-        <v>60.4960099811166</v>
+        <v>60.5193429547602</v>
       </c>
       <c r="F7" t="n">
-        <v>56.0122582683664</v>
+        <v>54.1393567649866</v>
       </c>
       <c r="G7" t="n">
-        <v>61.7781558307375</v>
+        <v>59.9737725640996</v>
       </c>
       <c r="H7" t="n">
-        <v>60.9308282846597</v>
+        <v>60.7433614531275</v>
       </c>
       <c r="I7" t="n">
-        <v>41.3695828863836</v>
+        <v>40.4907157772675</v>
       </c>
       <c r="J7" t="n">
-        <v>61.1288188665826</v>
+        <v>59.294400173124</v>
       </c>
       <c r="K7" t="n">
-        <v>74.8715145384386</v>
+        <v>70.2020314311024</v>
       </c>
       <c r="L7" t="n">
-        <v>57.3449348918661</v>
+        <v>55.3060631063742</v>
       </c>
       <c r="M7" t="n">
-        <v>50.5172565496771</v>
+        <v>53.9176297099178</v>
       </c>
       <c r="N7" t="n">
-        <v>41.7865547838589</v>
+        <v>41.7929883933972</v>
       </c>
       <c r="O7" t="n">
-        <v>53.524105690866</v>
+        <v>53.2312102614104</v>
       </c>
       <c r="P7" t="n">
-        <v>61.1075325027744</v>
+        <v>59.7976183106666</v>
       </c>
       <c r="Q7" t="n">
-        <v>55.8048943946887</v>
+        <v>55.3094092590667</v>
       </c>
       <c r="R7" t="n">
-        <v>50.5670072757026</v>
+        <v>51.5793024899657</v>
       </c>
       <c r="S7" t="n">
-        <v>53.7146438128049</v>
+        <v>55.7525943353851</v>
       </c>
       <c r="T7" t="n">
-        <v>57.2721297200959</v>
+        <v>54.6889333138432</v>
       </c>
       <c r="U7" t="n">
-        <v>66.7018572559181</v>
+        <v>63.2271709889615</v>
       </c>
       <c r="V7" t="n">
-        <v>44.7973773399854</v>
+        <v>45.7265280381822</v>
       </c>
       <c r="W7" t="n">
-        <v>53.7735578955212</v>
+        <v>53.4861104979257</v>
       </c>
       <c r="X7" t="n">
-        <v>59.7893334467864</v>
+        <v>62.6681510371167</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.3662681409608</v>
+        <v>55.0795997982103</v>
       </c>
       <c r="Z7" t="n">
-        <v>54.431721667202</v>
+        <v>56.250459442219</v>
       </c>
       <c r="AA7" t="n">
-        <v>62.4320010257894</v>
+        <v>60.6991024469636</v>
       </c>
       <c r="AB7" t="n">
-        <v>63.8575470739427</v>
+        <v>62.1859641913998</v>
       </c>
       <c r="AC7" t="n">
-        <v>53.5171447371446</v>
+        <v>52.6198733641384</v>
       </c>
       <c r="AD7" t="n">
-        <v>64.1232417839346</v>
+        <v>60.9245583263108</v>
       </c>
       <c r="AE7" t="n">
-        <v>54.8678661513982</v>
+        <v>53.7166453878635</v>
       </c>
       <c r="AF7" t="n">
-        <v>50.0081070005006</v>
+        <v>48.7569827203035</v>
       </c>
       <c r="AG7" t="n">
-        <v>58.1619929695211</v>
+        <v>59.4389450800185</v>
       </c>
       <c r="AH7" t="n">
-        <v>57.3345635694539</v>
+        <v>56.4182764049515</v>
       </c>
     </row>
     <row r="8">
@@ -1178,103 +1178,103 @@
         <v>2021</v>
       </c>
       <c r="B8" t="n">
-        <v>55.770477594349</v>
+        <v>55.943404568563</v>
       </c>
       <c r="C8" t="n">
-        <v>62.2969041519879</v>
+        <v>62.6962754908168</v>
       </c>
       <c r="D8" t="n">
-        <v>63.8783816807588</v>
+        <v>62.1752695061312</v>
       </c>
       <c r="E8" t="n">
-        <v>59.5353665282405</v>
+        <v>60.0406226250783</v>
       </c>
       <c r="F8" t="n">
-        <v>55.5205064307055</v>
+        <v>54.276380351777</v>
       </c>
       <c r="G8" t="n">
-        <v>62.0156662165721</v>
+        <v>61.3766621421676</v>
       </c>
       <c r="H8" t="n">
-        <v>60.478252010085</v>
+        <v>59.9864830410851</v>
       </c>
       <c r="I8" t="n">
-        <v>41.0359600673822</v>
+        <v>40.2269117161255</v>
       </c>
       <c r="J8" t="n">
-        <v>61.0094432348254</v>
+        <v>59.9668710159354</v>
       </c>
       <c r="K8" t="n">
-        <v>73.3132884470582</v>
+        <v>68.9661478342182</v>
       </c>
       <c r="L8" t="n">
-        <v>56.8235788904134</v>
+        <v>54.5993026435979</v>
       </c>
       <c r="M8" t="n">
-        <v>50.4124421871637</v>
+        <v>53.486942549151</v>
       </c>
       <c r="N8" t="n">
-        <v>41.380697779101</v>
+        <v>42.3870456888044</v>
       </c>
       <c r="O8" t="n">
-        <v>53.6642688558189</v>
+        <v>53.6509053431809</v>
       </c>
       <c r="P8" t="n">
-        <v>60.8868714615338</v>
+        <v>60.5002158898065</v>
       </c>
       <c r="Q8" t="n">
-        <v>55.3070151632575</v>
+        <v>56.1578341419421</v>
       </c>
       <c r="R8" t="n">
-        <v>50.471778947601</v>
+        <v>52.7875412697594</v>
       </c>
       <c r="S8" t="n">
-        <v>53.7848616311307</v>
+        <v>56.5987641801205</v>
       </c>
       <c r="T8" t="n">
-        <v>58.794034194473</v>
+        <v>57.2297528273372</v>
       </c>
       <c r="U8" t="n">
-        <v>65.6544172976912</v>
+        <v>62.8686626055777</v>
       </c>
       <c r="V8" t="n">
-        <v>43.3789061884486</v>
+        <v>44.4822176036495</v>
       </c>
       <c r="W8" t="n">
-        <v>54.2970304846019</v>
+        <v>53.0855285389772</v>
       </c>
       <c r="X8" t="n">
-        <v>58.1417681094563</v>
+        <v>62.0543554255725</v>
       </c>
       <c r="Y8" t="n">
-        <v>52.7467078262853</v>
+        <v>53.8898282867331</v>
       </c>
       <c r="Z8" t="n">
-        <v>53.0308068925554</v>
+        <v>56.5275735439803</v>
       </c>
       <c r="AA8" t="n">
-        <v>62.5648419550403</v>
+        <v>60.311667436109</v>
       </c>
       <c r="AB8" t="n">
-        <v>62.5038431735525</v>
+        <v>62.4343960667854</v>
       </c>
       <c r="AC8" t="n">
-        <v>54.0775728557526</v>
+        <v>51.7216331707427</v>
       </c>
       <c r="AD8" t="n">
-        <v>62.9426786775324</v>
+        <v>60.5727213028534</v>
       </c>
       <c r="AE8" t="n">
-        <v>53.2982956945116</v>
+        <v>52.7197385060253</v>
       </c>
       <c r="AF8" t="n">
-        <v>47.5947309802277</v>
+        <v>47.9591958224266</v>
       </c>
       <c r="AG8" t="n">
-        <v>59.079366334099</v>
+        <v>59.0504353437477</v>
       </c>
       <c r="AH8" t="n">
-        <v>57.7186198278116</v>
+        <v>57.4161185201677</v>
       </c>
     </row>
     <row r="9">
@@ -1282,103 +1282,207 @@
         <v>2022</v>
       </c>
       <c r="B9" t="n">
-        <v>56.5344314963228</v>
+        <v>57.3908330933204</v>
       </c>
       <c r="C9" t="n">
-        <v>61.1052652025937</v>
+        <v>63.7384595742926</v>
       </c>
       <c r="D9" t="n">
-        <v>63.6900569734689</v>
+        <v>63.0239256089417</v>
       </c>
       <c r="E9" t="n">
-        <v>60.8233934131904</v>
+        <v>62.0343447727668</v>
       </c>
       <c r="F9" t="n">
-        <v>54.4314303138557</v>
+        <v>56.3400793685934</v>
       </c>
       <c r="G9" t="n">
-        <v>62.9374828885683</v>
+        <v>63.6296763778654</v>
       </c>
       <c r="H9" t="n">
-        <v>61.2934167845668</v>
+        <v>63.2825947359703</v>
       </c>
       <c r="I9" t="n">
-        <v>42.0188938524443</v>
+        <v>41.2135556630185</v>
       </c>
       <c r="J9" t="n">
-        <v>60.9378367450501</v>
+        <v>60.7639468383327</v>
       </c>
       <c r="K9" t="n">
-        <v>75.4939861000258</v>
+        <v>70.8282121044384</v>
       </c>
       <c r="L9" t="n">
-        <v>57.2871582867849</v>
+        <v>54.9880925943629</v>
       </c>
       <c r="M9" t="n">
-        <v>54.6154287437538</v>
+        <v>56.1566825114211</v>
       </c>
       <c r="N9" t="n">
-        <v>41.8928960444605</v>
+        <v>43.5792298594617</v>
       </c>
       <c r="O9" t="n">
-        <v>53.7577954873081</v>
+        <v>55.1279200037321</v>
       </c>
       <c r="P9" t="n">
-        <v>62.2050681302235</v>
+        <v>61.7810914142375</v>
       </c>
       <c r="Q9" t="n">
-        <v>56.3230781700845</v>
+        <v>56.8035147392947</v>
       </c>
       <c r="R9" t="n">
-        <v>51.4597698840099</v>
+        <v>54.0209366731798</v>
       </c>
       <c r="S9" t="n">
-        <v>54.9402973135824</v>
+        <v>57.7942494313583</v>
       </c>
       <c r="T9" t="n">
-        <v>59.4907083112898</v>
+        <v>58.7145164710937</v>
       </c>
       <c r="U9" t="n">
-        <v>65.6743530603934</v>
+        <v>65.6942798744065</v>
       </c>
       <c r="V9" t="n">
-        <v>43.9750552845186</v>
+        <v>46.0567202685955</v>
       </c>
       <c r="W9" t="n">
-        <v>56.0611075871964</v>
+        <v>54.8585159495981</v>
       </c>
       <c r="X9" t="n">
-        <v>58.3919160563228</v>
+        <v>62.793780365212</v>
       </c>
       <c r="Y9" t="n">
-        <v>55.5498027879939</v>
+        <v>56.7339826544083</v>
       </c>
       <c r="Z9" t="n">
-        <v>54.2958069470945</v>
+        <v>58.084010861373</v>
       </c>
       <c r="AA9" t="n">
-        <v>63.1150891742689</v>
+        <v>61.9353209831156</v>
       </c>
       <c r="AB9" t="n">
-        <v>59.2908341442753</v>
+        <v>61.1872133284821</v>
       </c>
       <c r="AC9" t="n">
-        <v>52.3121416983437</v>
+        <v>51.6328518773597</v>
       </c>
       <c r="AD9" t="n">
-        <v>62.691599824739</v>
+        <v>62.2688618409518</v>
       </c>
       <c r="AE9" t="n">
-        <v>54.452326908592</v>
+        <v>54.6308059158804</v>
       </c>
       <c r="AF9" t="n">
-        <v>49.0308412027207</v>
+        <v>51.0108552515414</v>
       </c>
       <c r="AG9" t="n">
-        <v>59.1417155160955</v>
+        <v>60.3158781946106</v>
       </c>
       <c r="AH9" t="n">
-        <v>58.5565036941428</v>
+        <v>58.3247661843676</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B10" t="n">
+        <v>57.7932411476251</v>
+      </c>
+      <c r="C10" t="n">
+        <v>63.4338381979374</v>
+      </c>
+      <c r="D10" t="n">
+        <v>62.6658367583856</v>
+      </c>
+      <c r="E10" t="n">
+        <v>63.2524169458669</v>
+      </c>
+      <c r="F10" t="n">
+        <v>55.8718504703339</v>
+      </c>
+      <c r="G10" t="n">
+        <v>62.4707296715496</v>
+      </c>
+      <c r="H10" t="n">
+        <v>63.3214405680622</v>
+      </c>
+      <c r="I10" t="n">
+        <v>40.7191709503174</v>
+      </c>
+      <c r="J10" t="n">
+        <v>60.2122674447728</v>
+      </c>
+      <c r="K10" t="n">
+        <v>71.4732260912722</v>
+      </c>
+      <c r="L10" t="n">
+        <v>56.3837408010931</v>
+      </c>
+      <c r="M10" t="n">
+        <v>55.1098280540573</v>
+      </c>
+      <c r="N10" t="n">
+        <v>44.619051691751</v>
+      </c>
+      <c r="O10" t="n">
+        <v>55.1084603896958</v>
+      </c>
+      <c r="P10" t="n">
+        <v>61.0894506383248</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>56.3706360870123</v>
+      </c>
+      <c r="R10" t="n">
+        <v>52.4639302452131</v>
+      </c>
+      <c r="S10" t="n">
+        <v>55.8365139134636</v>
+      </c>
+      <c r="T10" t="n">
+        <v>57.1427211408774</v>
+      </c>
+      <c r="U10" t="n">
+        <v>65.4769982000895</v>
+      </c>
+      <c r="V10" t="n">
+        <v>46.9983512288104</v>
+      </c>
+      <c r="W10" t="n">
+        <v>55.5257720915495</v>
+      </c>
+      <c r="X10" t="n">
+        <v>62.4904721888749</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>58.0427706726356</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>57.5834397918506</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>62.9284295335563</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>61.106250589264</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>52.3078034017912</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>61.586180406941</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>56.0069084927989</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>51.3920273398118</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>59.5946774545309</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>58.6762960254856</v>
       </c>
     </row>
   </sheetData>

--- a/03_ips_clean/09_data_web/03_op.xlsx
+++ b/03_ips_clean/09_data_web/03_op.xlsx
@@ -554,103 +554,103 @@
         <v>2015</v>
       </c>
       <c r="B2" t="n">
-        <v>47.6414422626017</v>
+        <v>45.7279523963235</v>
       </c>
       <c r="C2" t="n">
-        <v>54.6193298375856</v>
+        <v>52.4407012229977</v>
       </c>
       <c r="D2" t="n">
-        <v>50.7585036112327</v>
+        <v>48.5771658678543</v>
       </c>
       <c r="E2" t="n">
-        <v>52.6911904398842</v>
+        <v>50.8318937976285</v>
       </c>
       <c r="F2" t="n">
-        <v>46.7496994181465</v>
+        <v>44.5598152466441</v>
       </c>
       <c r="G2" t="n">
-        <v>50.9445597554285</v>
+        <v>48.6034287954484</v>
       </c>
       <c r="H2" t="n">
-        <v>51.9695500723344</v>
+        <v>49.7747930182201</v>
       </c>
       <c r="I2" t="n">
-        <v>33.5965220127047</v>
+        <v>30.9507045076187</v>
       </c>
       <c r="J2" t="n">
-        <v>48.7970136023509</v>
+        <v>46.2615911766748</v>
       </c>
       <c r="K2" t="n">
-        <v>59.2682527139774</v>
+        <v>57.6981587939154</v>
       </c>
       <c r="L2" t="n">
-        <v>45.6102577193095</v>
+        <v>42.9052980024313</v>
       </c>
       <c r="M2" t="n">
-        <v>44.3251555156867</v>
+        <v>41.9942228280287</v>
       </c>
       <c r="N2" t="n">
-        <v>35.299551799005</v>
+        <v>32.5203737038281</v>
       </c>
       <c r="O2" t="n">
-        <v>43.4317267957601</v>
+        <v>41.5562165736522</v>
       </c>
       <c r="P2" t="n">
-        <v>51.7882035754183</v>
+        <v>49.793522183026</v>
       </c>
       <c r="Q2" t="n">
-        <v>45.9924659392571</v>
+        <v>44.8265122095073</v>
       </c>
       <c r="R2" t="n">
-        <v>43.9064373992269</v>
+        <v>41.3922977648653</v>
       </c>
       <c r="S2" t="n">
-        <v>46.7805890025387</v>
+        <v>44.3609466978878</v>
       </c>
       <c r="T2" t="n">
-        <v>48.3304342844744</v>
+        <v>45.9420531498874</v>
       </c>
       <c r="U2" t="n">
-        <v>56.9781850611243</v>
+        <v>55.0312827751115</v>
       </c>
       <c r="V2" t="n">
-        <v>35.4350735269469</v>
+        <v>33.0865759817574</v>
       </c>
       <c r="W2" t="n">
-        <v>42.7694711359688</v>
+        <v>40.4328368020417</v>
       </c>
       <c r="X2" t="n">
-        <v>54.7167275922061</v>
+        <v>52.6214142764621</v>
       </c>
       <c r="Y2" t="n">
-        <v>48.4096839805973</v>
+        <v>46.3118918411998</v>
       </c>
       <c r="Z2" t="n">
-        <v>47.8092053129448</v>
+        <v>45.5311409210659</v>
       </c>
       <c r="AA2" t="n">
-        <v>49.6053022465208</v>
+        <v>47.7433127434401</v>
       </c>
       <c r="AB2" t="n">
-        <v>54.670774438117</v>
+        <v>52.4522437473629</v>
       </c>
       <c r="AC2" t="n">
-        <v>44.8382066747431</v>
+        <v>42.5125538677755</v>
       </c>
       <c r="AD2" t="n">
-        <v>50.2954568826495</v>
+        <v>48.1640218384446</v>
       </c>
       <c r="AE2" t="n">
-        <v>44.46825288892</v>
+        <v>42.1854207880215</v>
       </c>
       <c r="AF2" t="n">
-        <v>40.9302844705583</v>
+        <v>38.3217518273275</v>
       </c>
       <c r="AG2" t="n">
-        <v>50.1006196735144</v>
+        <v>48.1075912254696</v>
       </c>
       <c r="AH2" t="n">
-        <v>47.8016981892359</v>
+        <v>44.987912247582</v>
       </c>
     </row>
     <row r="3">
@@ -658,103 +658,103 @@
         <v>2016</v>
       </c>
       <c r="B3" t="n">
-        <v>48.9262902351454</v>
+        <v>47.1292478449276</v>
       </c>
       <c r="C3" t="n">
-        <v>54.9362397694607</v>
+        <v>52.8285176237642</v>
       </c>
       <c r="D3" t="n">
-        <v>53.5223174515495</v>
+        <v>51.5592498963387</v>
       </c>
       <c r="E3" t="n">
-        <v>53.8634200735048</v>
+        <v>51.9895570356124</v>
       </c>
       <c r="F3" t="n">
-        <v>47.6778865957733</v>
+        <v>45.6086384001636</v>
       </c>
       <c r="G3" t="n">
-        <v>52.9166583715231</v>
+        <v>50.5079342438759</v>
       </c>
       <c r="H3" t="n">
-        <v>51.8131687373938</v>
+        <v>49.5467816561109</v>
       </c>
       <c r="I3" t="n">
-        <v>34.6475733178738</v>
+        <v>32.189234033712</v>
       </c>
       <c r="J3" t="n">
-        <v>52.0386649725315</v>
+        <v>49.9096619558072</v>
       </c>
       <c r="K3" t="n">
-        <v>62.2095067194761</v>
+        <v>60.7341728221878</v>
       </c>
       <c r="L3" t="n">
-        <v>48.4654101576512</v>
+        <v>46.2262473977018</v>
       </c>
       <c r="M3" t="n">
-        <v>46.7289370489821</v>
+        <v>44.6760674267979</v>
       </c>
       <c r="N3" t="n">
-        <v>36.2100292893326</v>
+        <v>33.6728761856009</v>
       </c>
       <c r="O3" t="n">
-        <v>44.9066168294304</v>
+        <v>43.1250080385874</v>
       </c>
       <c r="P3" t="n">
-        <v>52.8018862769655</v>
+        <v>50.7958879434158</v>
       </c>
       <c r="Q3" t="n">
-        <v>47.8197242122501</v>
+        <v>46.7519553191379</v>
       </c>
       <c r="R3" t="n">
-        <v>44.2788342851441</v>
+        <v>41.8871579294316</v>
       </c>
       <c r="S3" t="n">
-        <v>47.1129099976156</v>
+        <v>44.7330012628845</v>
       </c>
       <c r="T3" t="n">
-        <v>47.2702551266733</v>
+        <v>44.9853011843095</v>
       </c>
       <c r="U3" t="n">
-        <v>55.7131712211958</v>
+        <v>53.9026445663324</v>
       </c>
       <c r="V3" t="n">
-        <v>37.0138895000231</v>
+        <v>34.576566206468</v>
       </c>
       <c r="W3" t="n">
-        <v>44.1382119194228</v>
+        <v>41.874563623356</v>
       </c>
       <c r="X3" t="n">
-        <v>55.4221504321779</v>
+        <v>53.7826256157326</v>
       </c>
       <c r="Y3" t="n">
-        <v>49.5574417339161</v>
+        <v>47.6933008453132</v>
       </c>
       <c r="Z3" t="n">
-        <v>47.75503458673</v>
+        <v>45.4756933854918</v>
       </c>
       <c r="AA3" t="n">
-        <v>51.4671963028783</v>
+        <v>49.5887629035139</v>
       </c>
       <c r="AB3" t="n">
-        <v>55.8126378715353</v>
+        <v>53.6360374408058</v>
       </c>
       <c r="AC3" t="n">
-        <v>45.6687384743608</v>
+        <v>43.2908871645164</v>
       </c>
       <c r="AD3" t="n">
-        <v>49.7546988037158</v>
+        <v>47.7294723540977</v>
       </c>
       <c r="AE3" t="n">
-        <v>44.4861115016949</v>
+        <v>42.4507750314963</v>
       </c>
       <c r="AF3" t="n">
-        <v>42.141511502389</v>
+        <v>39.7420053153938</v>
       </c>
       <c r="AG3" t="n">
-        <v>51.5407002311967</v>
+        <v>49.3824863193591</v>
       </c>
       <c r="AH3" t="n">
-        <v>51.0266262696465</v>
+        <v>48.5620146255833</v>
       </c>
     </row>
     <row r="4">
@@ -762,103 +762,103 @@
         <v>2017</v>
       </c>
       <c r="B4" t="n">
-        <v>48.6593107185265</v>
+        <v>46.9117043468334</v>
       </c>
       <c r="C4" t="n">
-        <v>54.3550033766281</v>
+        <v>52.3113883096717</v>
       </c>
       <c r="D4" t="n">
-        <v>53.4055243523827</v>
+        <v>51.3417390279572</v>
       </c>
       <c r="E4" t="n">
-        <v>54.0080604291698</v>
+        <v>52.5566227324616</v>
       </c>
       <c r="F4" t="n">
-        <v>47.2984659207557</v>
+        <v>45.549933014726</v>
       </c>
       <c r="G4" t="n">
-        <v>52.8877982546723</v>
+        <v>50.7275735924726</v>
       </c>
       <c r="H4" t="n">
-        <v>51.4702452340383</v>
+        <v>49.4102708332266</v>
       </c>
       <c r="I4" t="n">
-        <v>34.1180406138287</v>
+        <v>31.5277320418441</v>
       </c>
       <c r="J4" t="n">
-        <v>50.918327070819</v>
+        <v>48.7573078405098</v>
       </c>
       <c r="K4" t="n">
-        <v>61.2167721735446</v>
+        <v>59.8195700432065</v>
       </c>
       <c r="L4" t="n">
-        <v>47.6797549375408</v>
+        <v>45.6402763594232</v>
       </c>
       <c r="M4" t="n">
-        <v>46.8096090857885</v>
+        <v>44.6491834411235</v>
       </c>
       <c r="N4" t="n">
-        <v>36.5521111838604</v>
+        <v>34.2538766183639</v>
       </c>
       <c r="O4" t="n">
-        <v>43.3262263668622</v>
+        <v>41.0903832951651</v>
       </c>
       <c r="P4" t="n">
-        <v>52.4949696416551</v>
+        <v>50.5944291437327</v>
       </c>
       <c r="Q4" t="n">
-        <v>49.322113628887</v>
+        <v>48.2104554386026</v>
       </c>
       <c r="R4" t="n">
-        <v>45.1630518941396</v>
+        <v>43.0967195726123</v>
       </c>
       <c r="S4" t="n">
-        <v>47.1038832543743</v>
+        <v>44.8338370037429</v>
       </c>
       <c r="T4" t="n">
-        <v>46.5953489547336</v>
+        <v>44.4987131314014</v>
       </c>
       <c r="U4" t="n">
-        <v>55.6795923003395</v>
+        <v>53.9246340094563</v>
       </c>
       <c r="V4" t="n">
-        <v>36.8398196310381</v>
+        <v>34.705026382847</v>
       </c>
       <c r="W4" t="n">
-        <v>44.4287891017947</v>
+        <v>42.2011777731894</v>
       </c>
       <c r="X4" t="n">
-        <v>54.7500483011064</v>
+        <v>52.9521512683093</v>
       </c>
       <c r="Y4" t="n">
-        <v>49.6158119420276</v>
+        <v>47.9129663217364</v>
       </c>
       <c r="Z4" t="n">
-        <v>47.6704136212774</v>
+        <v>45.6267369190303</v>
       </c>
       <c r="AA4" t="n">
-        <v>51.1978423639574</v>
+        <v>49.3326529901719</v>
       </c>
       <c r="AB4" t="n">
-        <v>54.9166799630383</v>
+        <v>53.1354773865479</v>
       </c>
       <c r="AC4" t="n">
-        <v>44.6427038261153</v>
+        <v>42.322288993328</v>
       </c>
       <c r="AD4" t="n">
-        <v>50.3808992842406</v>
+        <v>48.6066803081186</v>
       </c>
       <c r="AE4" t="n">
-        <v>44.8102723743813</v>
+        <v>42.8150972336427</v>
       </c>
       <c r="AF4" t="n">
-        <v>41.4981361988391</v>
+        <v>39.1703724499298</v>
       </c>
       <c r="AG4" t="n">
-        <v>51.6156674814388</v>
+        <v>49.785176105691</v>
       </c>
       <c r="AH4" t="n">
-        <v>50.9690044874118</v>
+        <v>48.6140983708479</v>
       </c>
     </row>
     <row r="5">
@@ -866,103 +866,103 @@
         <v>2018</v>
       </c>
       <c r="B5" t="n">
-        <v>52.012046538388</v>
+        <v>50.411943801584</v>
       </c>
       <c r="C5" t="n">
-        <v>59.5389175673527</v>
+        <v>57.5918831037055</v>
       </c>
       <c r="D5" t="n">
-        <v>56.1550797881955</v>
+        <v>54.3138079800403</v>
       </c>
       <c r="E5" t="n">
-        <v>58.3984626958115</v>
+        <v>56.9393339714896</v>
       </c>
       <c r="F5" t="n">
-        <v>47.9977547991725</v>
+        <v>46.3152222205608</v>
       </c>
       <c r="G5" t="n">
-        <v>55.5057716696406</v>
+        <v>53.3531741383798</v>
       </c>
       <c r="H5" t="n">
-        <v>54.9409376599366</v>
+        <v>53.1469164013454</v>
       </c>
       <c r="I5" t="n">
-        <v>37.2365409847808</v>
+        <v>34.8827467750555</v>
       </c>
       <c r="J5" t="n">
-        <v>54.905620577492</v>
+        <v>53.218316686828</v>
       </c>
       <c r="K5" t="n">
-        <v>67.6364629633044</v>
+        <v>66.2194275980499</v>
       </c>
       <c r="L5" t="n">
-        <v>50.5268874397971</v>
+        <v>48.6494240819514</v>
       </c>
       <c r="M5" t="n">
-        <v>50.4478082339484</v>
+        <v>48.473371533732</v>
       </c>
       <c r="N5" t="n">
-        <v>38.7368579576418</v>
+        <v>36.3090820593384</v>
       </c>
       <c r="O5" t="n">
-        <v>48.2109554390109</v>
+        <v>46.1326887235912</v>
       </c>
       <c r="P5" t="n">
-        <v>56.5341904572137</v>
+        <v>54.8325375380378</v>
       </c>
       <c r="Q5" t="n">
-        <v>52.3188213987652</v>
+        <v>51.4254439432628</v>
       </c>
       <c r="R5" t="n">
-        <v>48.8732587728566</v>
+        <v>46.6601080266777</v>
       </c>
       <c r="S5" t="n">
-        <v>51.0695796111449</v>
+        <v>48.8977155933198</v>
       </c>
       <c r="T5" t="n">
-        <v>49.8081693817497</v>
+        <v>47.6940252910038</v>
       </c>
       <c r="U5" t="n">
-        <v>58.7787366232778</v>
+        <v>57.1159232944471</v>
       </c>
       <c r="V5" t="n">
-        <v>40.8004120061163</v>
+        <v>38.6761876349342</v>
       </c>
       <c r="W5" t="n">
-        <v>49.0918675403675</v>
+        <v>46.9297610536168</v>
       </c>
       <c r="X5" t="n">
-        <v>58.0953245550488</v>
+        <v>56.5319663067751</v>
       </c>
       <c r="Y5" t="n">
-        <v>52.7632096829732</v>
+        <v>51.0980247988549</v>
       </c>
       <c r="Z5" t="n">
-        <v>51.633449792264</v>
+        <v>49.6703076571767</v>
       </c>
       <c r="AA5" t="n">
-        <v>54.8062553894492</v>
+        <v>53.1670882257408</v>
       </c>
       <c r="AB5" t="n">
-        <v>57.8674158329322</v>
+        <v>56.1414922418861</v>
       </c>
       <c r="AC5" t="n">
-        <v>46.8078736856484</v>
+        <v>44.7796416324105</v>
       </c>
       <c r="AD5" t="n">
-        <v>54.7055361279233</v>
+        <v>53.0681275451857</v>
       </c>
       <c r="AE5" t="n">
-        <v>49.6196479610546</v>
+        <v>47.7158963997877</v>
       </c>
       <c r="AF5" t="n">
-        <v>44.6591354055062</v>
+        <v>42.6009235377835</v>
       </c>
       <c r="AG5" t="n">
-        <v>54.3252593261713</v>
+        <v>52.5758249046558</v>
       </c>
       <c r="AH5" t="n">
-        <v>53.9224166115952</v>
+        <v>51.7726969787276</v>
       </c>
     </row>
     <row r="6">
@@ -970,103 +970,103 @@
         <v>2019</v>
       </c>
       <c r="B6" t="n">
-        <v>53.8321932996301</v>
+        <v>53.6346033186975</v>
       </c>
       <c r="C6" t="n">
-        <v>60.6341307556563</v>
+        <v>59.4680297203264</v>
       </c>
       <c r="D6" t="n">
-        <v>57.4860915115474</v>
+        <v>56.4996522771738</v>
       </c>
       <c r="E6" t="n">
-        <v>59.9009151191943</v>
+        <v>59.4427699408096</v>
       </c>
       <c r="F6" t="n">
-        <v>50.1750053974175</v>
+        <v>48.9673263290709</v>
       </c>
       <c r="G6" t="n">
-        <v>57.2990861131422</v>
+        <v>56.1287030218951</v>
       </c>
       <c r="H6" t="n">
-        <v>57.4229166236773</v>
+        <v>56.1324876670302</v>
       </c>
       <c r="I6" t="n">
-        <v>37.2503358145955</v>
+        <v>35.9264040620026</v>
       </c>
       <c r="J6" t="n">
-        <v>57.5876164182606</v>
+        <v>56.3157534130624</v>
       </c>
       <c r="K6" t="n">
-        <v>65.8565276424084</v>
+        <v>67.1168964635242</v>
       </c>
       <c r="L6" t="n">
-        <v>53.1339398165803</v>
+        <v>52.0939634333593</v>
       </c>
       <c r="M6" t="n">
-        <v>52.0986010146041</v>
+        <v>51.0271769454678</v>
       </c>
       <c r="N6" t="n">
-        <v>37.7087882846867</v>
+        <v>36.0109297827409</v>
       </c>
       <c r="O6" t="n">
-        <v>51.2991568324887</v>
+        <v>49.8618239146115</v>
       </c>
       <c r="P6" t="n">
-        <v>56.4728175794209</v>
+        <v>56.2651164646667</v>
       </c>
       <c r="Q6" t="n">
-        <v>51.1150452887447</v>
+        <v>53.1694725641448</v>
       </c>
       <c r="R6" t="n">
-        <v>50.078870672748</v>
+        <v>48.8355099925928</v>
       </c>
       <c r="S6" t="n">
-        <v>53.6043770421458</v>
+        <v>52.6617015177983</v>
       </c>
       <c r="T6" t="n">
-        <v>52.0010932862168</v>
+        <v>50.6827396938857</v>
       </c>
       <c r="U6" t="n">
-        <v>59.4966034578765</v>
+        <v>59.6235902928688</v>
       </c>
       <c r="V6" t="n">
-        <v>42.3042529662444</v>
+        <v>41.2701976101674</v>
       </c>
       <c r="W6" t="n">
-        <v>51.4440752132399</v>
+        <v>50.6681354264182</v>
       </c>
       <c r="X6" t="n">
-        <v>59.4822495497453</v>
+        <v>58.6746920259501</v>
       </c>
       <c r="Y6" t="n">
-        <v>53.720786551913</v>
+        <v>52.837741800358</v>
       </c>
       <c r="Z6" t="n">
-        <v>54.4368486621796</v>
+        <v>53.3426742650925</v>
       </c>
       <c r="AA6" t="n">
-        <v>57.0507039283696</v>
+        <v>56.1108211509691</v>
       </c>
       <c r="AB6" t="n">
-        <v>58.8109876762866</v>
+        <v>57.5462078541972</v>
       </c>
       <c r="AC6" t="n">
-        <v>49.9471839832909</v>
+        <v>48.6129727659906</v>
       </c>
       <c r="AD6" t="n">
-        <v>57.9785686592385</v>
+        <v>56.7883075022438</v>
       </c>
       <c r="AE6" t="n">
-        <v>50.870705978848</v>
+        <v>50.6250708380167</v>
       </c>
       <c r="AF6" t="n">
-        <v>46.3530290934761</v>
+        <v>45.1508688979311</v>
       </c>
       <c r="AG6" t="n">
-        <v>55.6530110055909</v>
+        <v>55.3041652514209</v>
       </c>
       <c r="AH6" t="n">
-        <v>54.8373678709795</v>
+        <v>53.5146107516767</v>
       </c>
     </row>
     <row r="7">
@@ -1074,103 +1074,103 @@
         <v>2020</v>
       </c>
       <c r="B7" t="n">
-        <v>56.8526173065648</v>
+        <v>55.0540874797933</v>
       </c>
       <c r="C7" t="n">
-        <v>63.1936083030862</v>
+        <v>61.0144748893809</v>
       </c>
       <c r="D7" t="n">
-        <v>62.187061358968</v>
+        <v>60.3123666270292</v>
       </c>
       <c r="E7" t="n">
-        <v>60.5193429547602</v>
+        <v>58.9518467388816</v>
       </c>
       <c r="F7" t="n">
-        <v>54.1393567649866</v>
+        <v>52.4802333298976</v>
       </c>
       <c r="G7" t="n">
-        <v>59.9737725640996</v>
+        <v>57.883702540923</v>
       </c>
       <c r="H7" t="n">
-        <v>60.7433614531275</v>
+        <v>58.8112622430967</v>
       </c>
       <c r="I7" t="n">
-        <v>40.4907157772675</v>
+        <v>37.8331931490725</v>
       </c>
       <c r="J7" t="n">
-        <v>59.294400173124</v>
+        <v>57.2803176440221</v>
       </c>
       <c r="K7" t="n">
-        <v>70.2020314311024</v>
+        <v>68.3948963978702</v>
       </c>
       <c r="L7" t="n">
-        <v>55.3060631063742</v>
+        <v>53.2572338571378</v>
       </c>
       <c r="M7" t="n">
-        <v>53.9176297099178</v>
+        <v>51.8537201681231</v>
       </c>
       <c r="N7" t="n">
-        <v>41.7929883933972</v>
+        <v>39.3897419587166</v>
       </c>
       <c r="O7" t="n">
-        <v>53.2312102614104</v>
+        <v>50.9334473602417</v>
       </c>
       <c r="P7" t="n">
-        <v>59.7976183106666</v>
+        <v>57.897335543473</v>
       </c>
       <c r="Q7" t="n">
-        <v>55.3094092590667</v>
+        <v>54.1920312739253</v>
       </c>
       <c r="R7" t="n">
-        <v>51.5793024899657</v>
+        <v>49.3749845321079</v>
       </c>
       <c r="S7" t="n">
-        <v>55.7525943353851</v>
+        <v>53.6875426024973</v>
       </c>
       <c r="T7" t="n">
-        <v>54.6889333138432</v>
+        <v>52.4894108369612</v>
       </c>
       <c r="U7" t="n">
-        <v>63.2271709889615</v>
+        <v>61.1713878898654</v>
       </c>
       <c r="V7" t="n">
-        <v>45.7265280381822</v>
+        <v>43.6173915400474</v>
       </c>
       <c r="W7" t="n">
-        <v>53.4861104979257</v>
+        <v>51.0966389369206</v>
       </c>
       <c r="X7" t="n">
-        <v>62.6681510371167</v>
+        <v>60.5307239554178</v>
       </c>
       <c r="Y7" t="n">
-        <v>55.0795997982103</v>
+        <v>53.1342999390862</v>
       </c>
       <c r="Z7" t="n">
-        <v>56.250459442219</v>
+        <v>54.003762454698</v>
       </c>
       <c r="AA7" t="n">
-        <v>60.6991024469636</v>
+        <v>58.9153173575793</v>
       </c>
       <c r="AB7" t="n">
-        <v>62.1859641913998</v>
+        <v>60.3468951796022</v>
       </c>
       <c r="AC7" t="n">
-        <v>52.6198733641384</v>
+        <v>50.8127709510728</v>
       </c>
       <c r="AD7" t="n">
-        <v>60.9245583263108</v>
+        <v>59.0573245125485</v>
       </c>
       <c r="AE7" t="n">
-        <v>53.7166453878635</v>
+        <v>51.5521582855591</v>
       </c>
       <c r="AF7" t="n">
-        <v>48.7569827203035</v>
+        <v>46.6015980266052</v>
       </c>
       <c r="AG7" t="n">
-        <v>59.4389450800185</v>
+        <v>57.490400490557</v>
       </c>
       <c r="AH7" t="n">
-        <v>56.4182764049515</v>
+        <v>54.0383052913822</v>
       </c>
     </row>
     <row r="8">
@@ -1178,103 +1178,103 @@
         <v>2021</v>
       </c>
       <c r="B8" t="n">
-        <v>55.943404568563</v>
+        <v>54.2595200601465</v>
       </c>
       <c r="C8" t="n">
-        <v>62.6962754908168</v>
+        <v>60.6142925370495</v>
       </c>
       <c r="D8" t="n">
-        <v>62.1752695061312</v>
+        <v>60.3916476911383</v>
       </c>
       <c r="E8" t="n">
-        <v>60.0406226250783</v>
+        <v>58.4398988274655</v>
       </c>
       <c r="F8" t="n">
-        <v>54.276380351777</v>
+        <v>52.7298338584216</v>
       </c>
       <c r="G8" t="n">
-        <v>61.3766621421676</v>
+        <v>59.319363672521</v>
       </c>
       <c r="H8" t="n">
-        <v>59.9864830410851</v>
+        <v>58.2890996704128</v>
       </c>
       <c r="I8" t="n">
-        <v>40.2269117161255</v>
+        <v>37.8199393421918</v>
       </c>
       <c r="J8" t="n">
-        <v>59.9668710159354</v>
+        <v>57.9323034861806</v>
       </c>
       <c r="K8" t="n">
-        <v>68.9661478342182</v>
+        <v>67.1444819205544</v>
       </c>
       <c r="L8" t="n">
-        <v>54.5993026435979</v>
+        <v>52.5257369743063</v>
       </c>
       <c r="M8" t="n">
-        <v>53.486942549151</v>
+        <v>51.2603778492246</v>
       </c>
       <c r="N8" t="n">
-        <v>42.3870456888044</v>
+        <v>40.2673559752776</v>
       </c>
       <c r="O8" t="n">
-        <v>53.6509053431809</v>
+        <v>51.5487102496497</v>
       </c>
       <c r="P8" t="n">
-        <v>60.5002158898065</v>
+        <v>58.835814169161</v>
       </c>
       <c r="Q8" t="n">
-        <v>56.1578341419421</v>
+        <v>55.1475156869174</v>
       </c>
       <c r="R8" t="n">
-        <v>52.7875412697594</v>
+        <v>50.6591513046564</v>
       </c>
       <c r="S8" t="n">
-        <v>56.5987641801205</v>
+        <v>54.6794191789784</v>
       </c>
       <c r="T8" t="n">
-        <v>57.2297528273372</v>
+        <v>55.7131816322733</v>
       </c>
       <c r="U8" t="n">
-        <v>62.8686626055777</v>
+        <v>61.0027938020161</v>
       </c>
       <c r="V8" t="n">
-        <v>44.4822176036495</v>
+        <v>42.351660561936</v>
       </c>
       <c r="W8" t="n">
-        <v>53.0855285389772</v>
+        <v>50.986963758274</v>
       </c>
       <c r="X8" t="n">
-        <v>62.0543554255725</v>
+        <v>59.8280964620251</v>
       </c>
       <c r="Y8" t="n">
-        <v>53.8898282867331</v>
+        <v>51.8518655589971</v>
       </c>
       <c r="Z8" t="n">
-        <v>56.5275735439803</v>
+        <v>54.3136752080544</v>
       </c>
       <c r="AA8" t="n">
-        <v>60.311667436109</v>
+        <v>58.7463358950167</v>
       </c>
       <c r="AB8" t="n">
-        <v>62.4343960667854</v>
+        <v>60.7674976455368</v>
       </c>
       <c r="AC8" t="n">
-        <v>51.7216331707427</v>
+        <v>50.0171710711195</v>
       </c>
       <c r="AD8" t="n">
-        <v>60.5727213028534</v>
+        <v>58.8180329334052</v>
       </c>
       <c r="AE8" t="n">
-        <v>52.7197385060253</v>
+        <v>50.6108572441544</v>
       </c>
       <c r="AF8" t="n">
-        <v>47.9591958224266</v>
+        <v>45.912531933362</v>
       </c>
       <c r="AG8" t="n">
-        <v>59.0504353437477</v>
+        <v>57.378837692545</v>
       </c>
       <c r="AH8" t="n">
-        <v>57.4161185201677</v>
+        <v>55.3777281563463</v>
       </c>
     </row>
     <row r="9">
@@ -1282,103 +1282,103 @@
         <v>2022</v>
       </c>
       <c r="B9" t="n">
-        <v>57.3908330933204</v>
+        <v>55.869815403303</v>
       </c>
       <c r="C9" t="n">
-        <v>63.7384595742926</v>
+        <v>61.6977492719188</v>
       </c>
       <c r="D9" t="n">
-        <v>63.0239256089417</v>
+        <v>61.5396379128302</v>
       </c>
       <c r="E9" t="n">
-        <v>62.0343447727668</v>
+        <v>60.6664808954099</v>
       </c>
       <c r="F9" t="n">
-        <v>56.3400793685934</v>
+        <v>55.079803899416</v>
       </c>
       <c r="G9" t="n">
-        <v>63.6296763778654</v>
+        <v>62.0778698310651</v>
       </c>
       <c r="H9" t="n">
-        <v>63.2825947359703</v>
+        <v>61.8326029228966</v>
       </c>
       <c r="I9" t="n">
-        <v>41.2135556630185</v>
+        <v>38.9215420121557</v>
       </c>
       <c r="J9" t="n">
-        <v>60.7639468383327</v>
+        <v>58.8713018668103</v>
       </c>
       <c r="K9" t="n">
-        <v>70.8282121044384</v>
+        <v>69.3601462711067</v>
       </c>
       <c r="L9" t="n">
-        <v>54.9880925943629</v>
+        <v>53.2786255711597</v>
       </c>
       <c r="M9" t="n">
-        <v>56.1566825114211</v>
+        <v>54.1826212050911</v>
       </c>
       <c r="N9" t="n">
-        <v>43.5792298594617</v>
+        <v>41.122322059496</v>
       </c>
       <c r="O9" t="n">
-        <v>55.1279200037321</v>
+        <v>53.3370602206612</v>
       </c>
       <c r="P9" t="n">
-        <v>61.7810914142375</v>
+        <v>60.2542433667563</v>
       </c>
       <c r="Q9" t="n">
-        <v>56.8035147392947</v>
+        <v>55.9979256046129</v>
       </c>
       <c r="R9" t="n">
-        <v>54.0209366731798</v>
+        <v>52.3588546044892</v>
       </c>
       <c r="S9" t="n">
-        <v>57.7942494313583</v>
+        <v>55.986311276547</v>
       </c>
       <c r="T9" t="n">
-        <v>58.7145164710937</v>
+        <v>57.078675712893</v>
       </c>
       <c r="U9" t="n">
-        <v>65.6942798744065</v>
+        <v>63.9024745145725</v>
       </c>
       <c r="V9" t="n">
-        <v>46.0567202685955</v>
+        <v>44.0534464505833</v>
       </c>
       <c r="W9" t="n">
-        <v>54.8585159495981</v>
+        <v>52.8069963212546</v>
       </c>
       <c r="X9" t="n">
-        <v>62.793780365212</v>
+        <v>60.8771260869583</v>
       </c>
       <c r="Y9" t="n">
-        <v>56.7339826544083</v>
+        <v>55.0884222848817</v>
       </c>
       <c r="Z9" t="n">
-        <v>58.084010861373</v>
+        <v>56.1596133405168</v>
       </c>
       <c r="AA9" t="n">
-        <v>61.9353209831156</v>
+        <v>60.3754670153182</v>
       </c>
       <c r="AB9" t="n">
-        <v>61.1872133284821</v>
+        <v>59.5853159413455</v>
       </c>
       <c r="AC9" t="n">
-        <v>51.6328518773597</v>
+        <v>49.9245232297815</v>
       </c>
       <c r="AD9" t="n">
-        <v>62.2688618409518</v>
+        <v>60.5925553735959</v>
       </c>
       <c r="AE9" t="n">
-        <v>54.6308059158804</v>
+        <v>52.8462752723723</v>
       </c>
       <c r="AF9" t="n">
-        <v>51.0108552515414</v>
+        <v>49.0247194597009</v>
       </c>
       <c r="AG9" t="n">
-        <v>60.3158781946106</v>
+        <v>58.5260404466465</v>
       </c>
       <c r="AH9" t="n">
-        <v>58.3247661843676</v>
+        <v>56.2488808678755</v>
       </c>
     </row>
     <row r="10">
@@ -1386,103 +1386,207 @@
         <v>2023</v>
       </c>
       <c r="B10" t="n">
-        <v>57.7932411476251</v>
+        <v>55.9100775316434</v>
       </c>
       <c r="C10" t="n">
-        <v>63.4338381979374</v>
+        <v>62.7749291654048</v>
       </c>
       <c r="D10" t="n">
-        <v>62.6658367583856</v>
+        <v>60.6111730391308</v>
       </c>
       <c r="E10" t="n">
-        <v>63.2524169458669</v>
+        <v>60.927541651555</v>
       </c>
       <c r="F10" t="n">
-        <v>55.8718504703339</v>
+        <v>53.836695201069</v>
       </c>
       <c r="G10" t="n">
-        <v>62.4707296715496</v>
+        <v>61.1574045099959</v>
       </c>
       <c r="H10" t="n">
-        <v>63.3214405680622</v>
+        <v>61.7600140297025</v>
       </c>
       <c r="I10" t="n">
-        <v>40.7191709503174</v>
+        <v>37.970251229289</v>
       </c>
       <c r="J10" t="n">
-        <v>60.2122674447728</v>
+        <v>58.2935329421078</v>
       </c>
       <c r="K10" t="n">
-        <v>71.4732260912722</v>
+        <v>68.858978587782</v>
       </c>
       <c r="L10" t="n">
-        <v>56.3837408010931</v>
+        <v>54.4486976471831</v>
       </c>
       <c r="M10" t="n">
-        <v>55.1098280540573</v>
+        <v>53.1100333222796</v>
       </c>
       <c r="N10" t="n">
-        <v>44.619051691751</v>
+        <v>41.2511600527712</v>
       </c>
       <c r="O10" t="n">
-        <v>55.1084603896958</v>
+        <v>53.175188281909</v>
       </c>
       <c r="P10" t="n">
-        <v>61.0894506383248</v>
+        <v>58.8654744638233</v>
       </c>
       <c r="Q10" t="n">
-        <v>56.3706360870123</v>
+        <v>55.1093985954114</v>
       </c>
       <c r="R10" t="n">
-        <v>52.4639302452131</v>
+        <v>50.1304191458385</v>
       </c>
       <c r="S10" t="n">
-        <v>55.8365139134636</v>
+        <v>53.0991613697375</v>
       </c>
       <c r="T10" t="n">
-        <v>57.1427211408774</v>
+        <v>55.4702331188217</v>
       </c>
       <c r="U10" t="n">
-        <v>65.4769982000895</v>
+        <v>64.324252626059</v>
       </c>
       <c r="V10" t="n">
-        <v>46.9983512288104</v>
+        <v>44.3748551672756</v>
       </c>
       <c r="W10" t="n">
-        <v>55.5257720915495</v>
+        <v>52.4160147578057</v>
       </c>
       <c r="X10" t="n">
-        <v>62.4904721888749</v>
+        <v>61.3892410108241</v>
       </c>
       <c r="Y10" t="n">
-        <v>58.0427706726356</v>
+        <v>55.6742357573097</v>
       </c>
       <c r="Z10" t="n">
-        <v>57.5834397918506</v>
+        <v>54.9790904479011</v>
       </c>
       <c r="AA10" t="n">
-        <v>62.9284295335563</v>
+        <v>61.8532903665139</v>
       </c>
       <c r="AB10" t="n">
-        <v>61.106250589264</v>
+        <v>58.4691790218858</v>
       </c>
       <c r="AC10" t="n">
-        <v>52.3078034017912</v>
+        <v>51.3408528272377</v>
       </c>
       <c r="AD10" t="n">
-        <v>61.586180406941</v>
+        <v>61.0689245990509</v>
       </c>
       <c r="AE10" t="n">
-        <v>56.0069084927989</v>
+        <v>52.9904496142061</v>
       </c>
       <c r="AF10" t="n">
-        <v>51.3920273398118</v>
+        <v>49.3572504562059</v>
       </c>
       <c r="AG10" t="n">
-        <v>59.5946774545309</v>
+        <v>58.7264109378589</v>
       </c>
       <c r="AH10" t="n">
-        <v>58.6762960254856</v>
+        <v>56.5452822285115</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B11" t="n">
+        <v>57.4698760467598</v>
+      </c>
+      <c r="C11" t="n">
+        <v>65.9623818414455</v>
+      </c>
+      <c r="D11" t="n">
+        <v>61.5323278540853</v>
+      </c>
+      <c r="E11" t="n">
+        <v>61.8774618001494</v>
+      </c>
+      <c r="F11" t="n">
+        <v>56.1683631540218</v>
+      </c>
+      <c r="G11" t="n">
+        <v>61.3595988756363</v>
+      </c>
+      <c r="H11" t="n">
+        <v>64.1477537003447</v>
+      </c>
+      <c r="I11" t="n">
+        <v>37.7234747535386</v>
+      </c>
+      <c r="J11" t="n">
+        <v>57.9473049268069</v>
+      </c>
+      <c r="K11" t="n">
+        <v>71.8327380463364</v>
+      </c>
+      <c r="L11" t="n">
+        <v>56.0318306446729</v>
+      </c>
+      <c r="M11" t="n">
+        <v>54.2780112011178</v>
+      </c>
+      <c r="N11" t="n">
+        <v>44.0479639610112</v>
+      </c>
+      <c r="O11" t="n">
+        <v>55.1438202898644</v>
+      </c>
+      <c r="P11" t="n">
+        <v>61.3491248091557</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>56.5201493537135</v>
+      </c>
+      <c r="R11" t="n">
+        <v>52.2189186486047</v>
+      </c>
+      <c r="S11" t="n">
+        <v>54.3110485808044</v>
+      </c>
+      <c r="T11" t="n">
+        <v>56.6272370798354</v>
+      </c>
+      <c r="U11" t="n">
+        <v>65.7920719264015</v>
+      </c>
+      <c r="V11" t="n">
+        <v>43.2279772730416</v>
+      </c>
+      <c r="W11" t="n">
+        <v>53.8173495118114</v>
+      </c>
+      <c r="X11" t="n">
+        <v>65.0156722337113</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>56.4017955562503</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>57.0056877448846</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>63.4579395128646</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>61.5998831971379</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>52.0105158229278</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>62.3756682444967</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>55.0718107193369</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>50.9335883911951</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>60.3812263312604</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>57.0939056683325</v>
       </c>
     </row>
   </sheetData>
